--- a/Barton1792DB/Barton1792DB/Barton1792DB/bin/DataFiles/Copy of MASTER SENIORITY LISTING.xlsx
+++ b/Barton1792DB/Barton1792DB/Barton1792DB/bin/DataFiles/Copy of MASTER SENIORITY LISTING.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Telahun\Documents\School\CECS596\Barton1792\Barton1792API\BartonAPI\Barton1792DB\Barton1792DB\Barton1792DB\bin\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B02F7AAF-D855-4E7D-BA67-7BCEF1E22B9E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F5F1DA1-DD7B-47F0-983C-4D8644A09E28}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6240" yWindow="915" windowWidth="28800" windowHeight="15435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2795" uniqueCount="829">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2731" uniqueCount="829">
   <si>
     <t>EMPLOYEE NAME</t>
   </si>
@@ -2665,7 +2665,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2824,6 +2824,20 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -18295,19 +18309,32 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37244190-D222-4663-AC6D-2030567E4A09}">
-  <dimension ref="A1:O303"/>
+  <dimension ref="A1:O304"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView tabSelected="1" topLeftCell="A282" workbookViewId="0">
+      <selection activeCell="H301" sqref="H301"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="14" max="14" width="40.5703125" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" customWidth="1"/>
+    <col min="8" max="8" width="27.140625" customWidth="1"/>
+    <col min="9" max="9" width="24.7109375" customWidth="1"/>
+    <col min="10" max="10" width="17.42578125" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" customWidth="1"/>
+    <col min="12" max="12" width="15" customWidth="1"/>
+    <col min="13" max="13" width="26.42578125" customWidth="1"/>
+    <col min="14" max="14" width="30.7109375" customWidth="1"/>
     <col min="15" max="15" width="79.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="162" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>518</v>
       </c>
@@ -18361,7 +18388,7 @@
       <c r="B2" s="4">
         <v>1977</v>
       </c>
-      <c r="C2" s="22">
+      <c r="C2" s="51">
         <v>28396</v>
       </c>
       <c r="D2" s="22">
@@ -18409,8 +18436,8 @@
       <c r="B3" s="4">
         <v>1977</v>
       </c>
-      <c r="C3" s="22" t="s">
-        <v>12</v>
+      <c r="C3" s="51">
+        <v>28401</v>
       </c>
       <c r="D3" s="22">
         <v>43466</v>
@@ -18457,7 +18484,7 @@
       <c r="B4" s="4">
         <v>1977</v>
       </c>
-      <c r="C4" s="22">
+      <c r="C4" s="51">
         <v>28402</v>
       </c>
       <c r="D4" s="22">
@@ -18505,7 +18532,7 @@
       <c r="B5" s="4">
         <v>1977</v>
       </c>
-      <c r="C5" s="22">
+      <c r="C5" s="51">
         <v>28411</v>
       </c>
       <c r="D5" s="22">
@@ -18553,8 +18580,8 @@
       <c r="B6" s="4">
         <v>1978</v>
       </c>
-      <c r="C6" s="30" t="s">
-        <v>244</v>
+      <c r="C6" s="52">
+        <v>28705</v>
       </c>
       <c r="D6" s="22">
         <v>43466</v>
@@ -18601,8 +18628,8 @@
       <c r="B7" s="4">
         <v>1978</v>
       </c>
-      <c r="C7" s="31" t="s">
-        <v>244</v>
+      <c r="C7" s="53">
+        <v>28705</v>
       </c>
       <c r="D7" s="22">
         <v>43466</v>
@@ -18649,7 +18676,7 @@
       <c r="B8" s="4">
         <v>1978</v>
       </c>
-      <c r="C8" s="32">
+      <c r="C8" s="54">
         <v>28795</v>
       </c>
       <c r="D8" s="22">
@@ -18697,8 +18724,8 @@
       <c r="B9" s="4">
         <v>1979</v>
       </c>
-      <c r="C9" s="31" t="s">
-        <v>245</v>
+      <c r="C9" s="53">
+        <v>28878</v>
       </c>
       <c r="D9" s="22">
         <v>43466</v>
@@ -18745,7 +18772,7 @@
       <c r="B10" s="4">
         <v>1979</v>
       </c>
-      <c r="C10" s="22">
+      <c r="C10" s="51">
         <v>28879</v>
       </c>
       <c r="D10" s="22">
@@ -18793,7 +18820,7 @@
       <c r="B11" s="4">
         <v>1979</v>
       </c>
-      <c r="C11" s="22">
+      <c r="C11" s="51">
         <v>28961</v>
       </c>
       <c r="D11" s="22">
@@ -18841,8 +18868,8 @@
       <c r="B12" s="4">
         <v>1979</v>
       </c>
-      <c r="C12" s="22" t="s">
-        <v>246</v>
+      <c r="C12" s="51">
+        <v>28961</v>
       </c>
       <c r="D12" s="22">
         <v>43466</v>
@@ -18889,8 +18916,8 @@
       <c r="B13" s="4">
         <v>1979</v>
       </c>
-      <c r="C13" s="31" t="s">
-        <v>246</v>
+      <c r="C13" s="53">
+        <v>28961</v>
       </c>
       <c r="D13" s="22">
         <v>43466</v>
@@ -18937,7 +18964,7 @@
       <c r="B14" s="4">
         <v>1979</v>
       </c>
-      <c r="C14" s="22">
+      <c r="C14" s="51">
         <v>29017</v>
       </c>
       <c r="D14" s="22">
@@ -18985,7 +19012,7 @@
       <c r="B15" s="4">
         <v>1979</v>
       </c>
-      <c r="C15" s="22">
+      <c r="C15" s="51">
         <v>29017</v>
       </c>
       <c r="D15" s="22">
@@ -19033,8 +19060,8 @@
       <c r="B16" s="4">
         <v>1979</v>
       </c>
-      <c r="C16" s="31" t="s">
-        <v>280</v>
+      <c r="C16" s="53">
+        <v>28996</v>
       </c>
       <c r="D16" s="22">
         <v>43466</v>
@@ -19081,8 +19108,8 @@
       <c r="B17" s="4">
         <v>1979</v>
       </c>
-      <c r="C17" s="31" t="s">
-        <v>280</v>
+      <c r="C17" s="53">
+        <v>28996</v>
       </c>
       <c r="D17" s="22">
         <v>43466</v>
@@ -19129,8 +19156,8 @@
       <c r="B18" s="4">
         <v>1980</v>
       </c>
-      <c r="C18" s="31" t="s">
-        <v>247</v>
+      <c r="C18" s="53">
+        <v>29327</v>
       </c>
       <c r="D18" s="22">
         <v>43466</v>
@@ -19177,7 +19204,7 @@
       <c r="B19" s="4">
         <v>1980</v>
       </c>
-      <c r="C19" s="22">
+      <c r="C19" s="51">
         <v>29333</v>
       </c>
       <c r="D19" s="22">
@@ -19225,7 +19252,7 @@
       <c r="B20" s="4">
         <v>1980</v>
       </c>
-      <c r="C20" s="22">
+      <c r="C20" s="51">
         <v>29333</v>
       </c>
       <c r="D20" s="22">
@@ -19273,7 +19300,7 @@
       <c r="B21" s="4">
         <v>1980</v>
       </c>
-      <c r="C21" s="22">
+      <c r="C21" s="51">
         <v>29336</v>
       </c>
       <c r="D21" s="22">
@@ -19321,7 +19348,7 @@
       <c r="B22" s="4">
         <v>1980</v>
       </c>
-      <c r="C22" s="22">
+      <c r="C22" s="51">
         <v>29348</v>
       </c>
       <c r="D22" s="22">
@@ -19369,7 +19396,7 @@
       <c r="B23" s="4">
         <v>1980</v>
       </c>
-      <c r="C23" s="22">
+      <c r="C23" s="51">
         <v>29361</v>
       </c>
       <c r="D23" s="22">
@@ -19417,8 +19444,8 @@
       <c r="B24" s="4">
         <v>1980</v>
       </c>
-      <c r="C24" s="31" t="s">
-        <v>42</v>
+      <c r="C24" s="53">
+        <v>29503</v>
       </c>
       <c r="D24" s="22">
         <v>43466</v>
@@ -19465,7 +19492,7 @@
       <c r="B25" s="4">
         <v>1980</v>
       </c>
-      <c r="C25" s="22">
+      <c r="C25" s="51">
         <v>29504</v>
       </c>
       <c r="D25" s="22">
@@ -19513,8 +19540,8 @@
       <c r="B26" s="4">
         <v>1980</v>
       </c>
-      <c r="C26" s="31" t="s">
-        <v>46</v>
+      <c r="C26" s="53">
+        <v>29518</v>
       </c>
       <c r="D26" s="22">
         <v>43466</v>
@@ -19561,7 +19588,7 @@
       <c r="B27" s="4">
         <v>1981</v>
       </c>
-      <c r="C27" s="22">
+      <c r="C27" s="51">
         <v>29850</v>
       </c>
       <c r="D27" s="22">
@@ -19609,8 +19636,8 @@
       <c r="B28" s="4">
         <v>1989</v>
       </c>
-      <c r="C28" s="31" t="s">
-        <v>50</v>
+      <c r="C28" s="53">
+        <v>32808</v>
       </c>
       <c r="D28" s="22">
         <v>43466</v>
@@ -19657,7 +19684,7 @@
       <c r="B29" s="4">
         <v>1990</v>
       </c>
-      <c r="C29" s="22">
+      <c r="C29" s="51">
         <v>33127</v>
       </c>
       <c r="D29" s="22">
@@ -19705,7 +19732,7 @@
       <c r="B30" s="4">
         <v>1990</v>
       </c>
-      <c r="C30" s="32">
+      <c r="C30" s="54">
         <v>33133</v>
       </c>
       <c r="D30" s="22">
@@ -19753,7 +19780,7 @@
       <c r="B31" s="4">
         <v>1990</v>
       </c>
-      <c r="C31" s="22">
+      <c r="C31" s="51">
         <v>33133</v>
       </c>
       <c r="D31" s="22">
@@ -19801,7 +19828,7 @@
       <c r="B32" s="4">
         <v>1990</v>
       </c>
-      <c r="C32" s="22">
+      <c r="C32" s="51">
         <v>33203</v>
       </c>
       <c r="D32" s="22">
@@ -19849,7 +19876,7 @@
       <c r="B33" s="4">
         <v>1996</v>
       </c>
-      <c r="C33" s="22">
+      <c r="C33" s="51">
         <v>35177</v>
       </c>
       <c r="D33" s="22">
@@ -19897,7 +19924,7 @@
       <c r="B34" s="4">
         <v>1996</v>
       </c>
-      <c r="C34" s="30">
+      <c r="C34" s="52">
         <v>35285</v>
       </c>
       <c r="D34" s="22">
@@ -19945,8 +19972,8 @@
       <c r="B35" s="4">
         <v>1996</v>
       </c>
-      <c r="C35" s="31" t="s">
-        <v>64</v>
+      <c r="C35" s="53">
+        <v>35296</v>
       </c>
       <c r="D35" s="22">
         <v>43466</v>
@@ -19993,7 +20020,7 @@
       <c r="B36" s="4">
         <v>1996</v>
       </c>
-      <c r="C36" s="31">
+      <c r="C36" s="53">
         <v>35359</v>
       </c>
       <c r="D36" s="22">
@@ -20041,8 +20068,8 @@
       <c r="B37" s="4">
         <v>1997</v>
       </c>
-      <c r="C37" s="31" t="s">
-        <v>70</v>
+      <c r="C37" s="53">
+        <v>35506</v>
       </c>
       <c r="D37" s="22">
         <v>43466</v>
@@ -20089,7 +20116,7 @@
       <c r="B38" s="4">
         <v>1997</v>
       </c>
-      <c r="C38" s="22">
+      <c r="C38" s="51">
         <v>35548</v>
       </c>
       <c r="D38" s="22">
@@ -20137,7 +20164,7 @@
       <c r="B39" s="4">
         <v>1997</v>
       </c>
-      <c r="C39" s="22">
+      <c r="C39" s="51">
         <v>35632</v>
       </c>
       <c r="D39" s="22">
@@ -20185,7 +20212,7 @@
       <c r="B40" s="4">
         <v>1997</v>
       </c>
-      <c r="C40" s="22">
+      <c r="C40" s="51">
         <v>35695</v>
       </c>
       <c r="D40" s="22">
@@ -20233,7 +20260,7 @@
       <c r="B41" s="4">
         <v>1997</v>
       </c>
-      <c r="C41" s="22">
+      <c r="C41" s="51">
         <v>35730</v>
       </c>
       <c r="D41" s="22">
@@ -20281,8 +20308,8 @@
       <c r="B42" s="4">
         <v>1998</v>
       </c>
-      <c r="C42" s="31" t="s">
-        <v>248</v>
+      <c r="C42" s="53">
+        <v>35803</v>
       </c>
       <c r="D42" s="22">
         <v>43466</v>
@@ -20329,7 +20356,7 @@
       <c r="B43" s="4">
         <v>1998</v>
       </c>
-      <c r="C43" s="22">
+      <c r="C43" s="51">
         <v>35871</v>
       </c>
       <c r="D43" s="22">
@@ -20377,8 +20404,8 @@
       <c r="B44" s="4">
         <v>1998</v>
       </c>
-      <c r="C44" s="31" t="s">
-        <v>84</v>
+      <c r="C44" s="53">
+        <v>35871</v>
       </c>
       <c r="D44" s="22">
         <v>43466</v>
@@ -20425,8 +20452,8 @@
       <c r="B45" s="4">
         <v>1998</v>
       </c>
-      <c r="C45" s="22" t="s">
-        <v>89</v>
+      <c r="C45" s="51">
+        <v>35936</v>
       </c>
       <c r="D45" s="22">
         <v>43466</v>
@@ -20473,7 +20500,7 @@
       <c r="B46" s="4">
         <v>1998</v>
       </c>
-      <c r="C46" s="22">
+      <c r="C46" s="51">
         <v>36060</v>
       </c>
       <c r="D46" s="22">
@@ -20521,7 +20548,7 @@
       <c r="B47" s="4">
         <v>1999</v>
       </c>
-      <c r="C47" s="22">
+      <c r="C47" s="51">
         <v>36171</v>
       </c>
       <c r="D47" s="22">
@@ -20569,8 +20596,8 @@
       <c r="B48" s="4">
         <v>1999</v>
       </c>
-      <c r="C48" s="31" t="s">
-        <v>96</v>
+      <c r="C48" s="53">
+        <v>36248</v>
       </c>
       <c r="D48" s="22">
         <v>43466</v>
@@ -20617,7 +20644,7 @@
       <c r="B49" s="4">
         <v>1999</v>
       </c>
-      <c r="C49" s="22">
+      <c r="C49" s="51">
         <v>36255</v>
       </c>
       <c r="D49" s="22">
@@ -20665,7 +20692,7 @@
       <c r="B50" s="4">
         <v>2000</v>
       </c>
-      <c r="C50" s="22">
+      <c r="C50" s="51">
         <v>36543</v>
       </c>
       <c r="D50" s="22">
@@ -20713,8 +20740,8 @@
       <c r="B51" s="4">
         <v>2000</v>
       </c>
-      <c r="C51" s="31" t="s">
-        <v>103</v>
+      <c r="C51" s="53">
+        <v>36544</v>
       </c>
       <c r="D51" s="22">
         <v>43466</v>
@@ -20761,8 +20788,8 @@
       <c r="B52" s="4">
         <v>2000</v>
       </c>
-      <c r="C52" s="31" t="s">
-        <v>103</v>
+      <c r="C52" s="53">
+        <v>36544</v>
       </c>
       <c r="D52" s="22">
         <v>43466</v>
@@ -20809,8 +20836,8 @@
       <c r="B53" s="4">
         <v>2000</v>
       </c>
-      <c r="C53" s="31" t="s">
-        <v>109</v>
+      <c r="C53" s="53">
+        <v>36794</v>
       </c>
       <c r="D53" s="22">
         <v>43466</v>
@@ -20857,8 +20884,8 @@
       <c r="B54" s="4">
         <v>2000</v>
       </c>
-      <c r="C54" s="31" t="s">
-        <v>249</v>
+      <c r="C54" s="53">
+        <v>36822</v>
       </c>
       <c r="D54" s="22">
         <v>43466</v>
@@ -20905,8 +20932,8 @@
       <c r="B55" s="4">
         <v>2000</v>
       </c>
-      <c r="C55" s="31" t="s">
-        <v>115</v>
+      <c r="C55" s="53">
+        <v>36857</v>
       </c>
       <c r="D55" s="22">
         <v>43466</v>
@@ -20953,7 +20980,7 @@
       <c r="B56" s="4">
         <v>2000</v>
       </c>
-      <c r="C56" s="22">
+      <c r="C56" s="51">
         <v>36857</v>
       </c>
       <c r="D56" s="22">
@@ -21001,7 +21028,7 @@
       <c r="B57" s="4">
         <v>2000</v>
       </c>
-      <c r="C57" s="22">
+      <c r="C57" s="51">
         <v>36860</v>
       </c>
       <c r="D57" s="22">
@@ -21049,7 +21076,7 @@
       <c r="B58" s="4">
         <v>2000</v>
       </c>
-      <c r="C58" s="22">
+      <c r="C58" s="51">
         <v>36873</v>
       </c>
       <c r="D58" s="22">
@@ -21097,7 +21124,7 @@
       <c r="B59" s="4">
         <v>2001</v>
       </c>
-      <c r="C59" s="22">
+      <c r="C59" s="51">
         <v>37202</v>
       </c>
       <c r="D59" s="22">
@@ -21145,8 +21172,8 @@
       <c r="B60" s="4">
         <v>2003</v>
       </c>
-      <c r="C60" s="30" t="s">
-        <v>124</v>
+      <c r="C60" s="52">
+        <v>37662</v>
       </c>
       <c r="D60" s="22">
         <v>43466</v>
@@ -21193,7 +21220,7 @@
       <c r="B61" s="4">
         <v>2005</v>
       </c>
-      <c r="C61" s="30">
+      <c r="C61" s="52">
         <v>38636</v>
       </c>
       <c r="D61" s="22">
@@ -21241,7 +21268,7 @@
       <c r="B62" s="4">
         <v>2006</v>
       </c>
-      <c r="C62" s="32">
+      <c r="C62" s="54">
         <v>39009</v>
       </c>
       <c r="D62" s="22">
@@ -21289,7 +21316,7 @@
       <c r="B63" s="4">
         <v>2006</v>
       </c>
-      <c r="C63" s="22">
+      <c r="C63" s="51">
         <v>39062</v>
       </c>
       <c r="D63" s="22">
@@ -21337,8 +21364,8 @@
       <c r="B64" s="4">
         <v>2007</v>
       </c>
-      <c r="C64" s="31" t="s">
-        <v>251</v>
+      <c r="C64" s="53">
+        <v>39146</v>
       </c>
       <c r="D64" s="22">
         <v>43466</v>
@@ -21385,8 +21412,8 @@
       <c r="B65" s="4">
         <v>2007</v>
       </c>
-      <c r="C65" s="22" t="s">
-        <v>252</v>
+      <c r="C65" s="51">
+        <v>39160</v>
       </c>
       <c r="D65" s="22">
         <v>43466</v>
@@ -21433,8 +21460,8 @@
       <c r="B66" s="4">
         <v>2007</v>
       </c>
-      <c r="C66" s="31" t="s">
-        <v>253</v>
+      <c r="C66" s="53">
+        <v>39181</v>
       </c>
       <c r="D66" s="22">
         <v>43466</v>
@@ -21481,8 +21508,8 @@
       <c r="B67" s="4">
         <v>2007</v>
       </c>
-      <c r="C67" s="31" t="s">
-        <v>254</v>
+      <c r="C67" s="53">
+        <v>39293</v>
       </c>
       <c r="D67" s="22">
         <v>43466</v>
@@ -21529,7 +21556,7 @@
       <c r="B68" s="4">
         <v>2007</v>
       </c>
-      <c r="C68" s="22">
+      <c r="C68" s="51">
         <v>39314</v>
       </c>
       <c r="D68" s="22">
@@ -21577,8 +21604,8 @@
       <c r="B69" s="4">
         <v>2007</v>
       </c>
-      <c r="C69" s="31" t="s">
-        <v>255</v>
+      <c r="C69" s="53">
+        <v>39419</v>
       </c>
       <c r="D69" s="22">
         <v>43466</v>
@@ -21625,7 +21652,7 @@
       <c r="B70" s="4">
         <v>2008</v>
       </c>
-      <c r="C70" s="22">
+      <c r="C70" s="51">
         <v>39454</v>
       </c>
       <c r="D70" s="22">
@@ -21673,8 +21700,8 @@
       <c r="B71" s="4">
         <v>2008</v>
       </c>
-      <c r="C71" s="22" t="s">
-        <v>256</v>
+      <c r="C71" s="51">
+        <v>39468</v>
       </c>
       <c r="D71" s="22">
         <v>43466</v>
@@ -21721,8 +21748,8 @@
       <c r="B72" s="4">
         <v>2008</v>
       </c>
-      <c r="C72" s="31" t="s">
-        <v>257</v>
+      <c r="C72" s="53">
+        <v>39693</v>
       </c>
       <c r="D72" s="22">
         <v>43466</v>
@@ -21769,8 +21796,8 @@
       <c r="B73" s="4">
         <v>2008</v>
       </c>
-      <c r="C73" s="31" t="s">
-        <v>141</v>
+      <c r="C73" s="53">
+        <v>39769</v>
       </c>
       <c r="D73" s="22">
         <v>43466</v>
@@ -21817,7 +21844,7 @@
       <c r="B74" s="4">
         <v>2010</v>
       </c>
-      <c r="C74" s="22">
+      <c r="C74" s="51">
         <v>40399</v>
       </c>
       <c r="D74" s="22">
@@ -21865,7 +21892,7 @@
       <c r="B75" s="4">
         <v>2010</v>
       </c>
-      <c r="C75" s="22">
+      <c r="C75" s="51">
         <v>40399</v>
       </c>
       <c r="D75" s="22">
@@ -21913,7 +21940,7 @@
       <c r="B76" s="4">
         <v>2010</v>
       </c>
-      <c r="C76" s="22">
+      <c r="C76" s="51">
         <v>40399</v>
       </c>
       <c r="D76" s="22">
@@ -21961,8 +21988,8 @@
       <c r="B77" s="4">
         <v>2010</v>
       </c>
-      <c r="C77" s="31" t="s">
-        <v>258</v>
+      <c r="C77" s="53">
+        <v>40399</v>
       </c>
       <c r="D77" s="22">
         <v>43466</v>
@@ -22009,7 +22036,7 @@
       <c r="B78" s="4">
         <v>2010</v>
       </c>
-      <c r="C78" s="22">
+      <c r="C78" s="51">
         <v>40406</v>
       </c>
       <c r="D78" s="22">
@@ -22057,7 +22084,7 @@
       <c r="B79" s="4">
         <v>2010</v>
       </c>
-      <c r="C79" s="22">
+      <c r="C79" s="51">
         <v>40406</v>
       </c>
       <c r="D79" s="22">
@@ -22105,7 +22132,7 @@
       <c r="B80" s="4">
         <v>2010</v>
       </c>
-      <c r="C80" s="22">
+      <c r="C80" s="51">
         <v>40406</v>
       </c>
       <c r="D80" s="22">
@@ -22153,7 +22180,7 @@
       <c r="B81" s="4">
         <v>2010</v>
       </c>
-      <c r="C81" s="22">
+      <c r="C81" s="51">
         <v>40406</v>
       </c>
       <c r="D81" s="22">
@@ -22201,8 +22228,8 @@
       <c r="B82" s="4">
         <v>2010</v>
       </c>
-      <c r="C82" s="31" t="s">
-        <v>259</v>
+      <c r="C82" s="53">
+        <v>40420</v>
       </c>
       <c r="D82" s="22">
         <v>43466</v>
@@ -22249,8 +22276,8 @@
       <c r="B83" s="4">
         <v>2011</v>
       </c>
-      <c r="C83" s="31" t="s">
-        <v>201</v>
+      <c r="C83" s="53">
+        <v>40875</v>
       </c>
       <c r="D83" s="22">
         <v>43466</v>
@@ -22297,8 +22324,8 @@
       <c r="B84" s="4">
         <v>2011</v>
       </c>
-      <c r="C84" s="31" t="s">
-        <v>260</v>
+      <c r="C84" s="53">
+        <v>40770</v>
       </c>
       <c r="D84" s="22">
         <v>43466</v>
@@ -22345,7 +22372,7 @@
       <c r="B85" s="4">
         <v>2011</v>
       </c>
-      <c r="C85" s="22">
+      <c r="C85" s="51">
         <v>40777</v>
       </c>
       <c r="D85" s="22">
@@ -22393,8 +22420,8 @@
       <c r="B86" s="4">
         <v>2011</v>
       </c>
-      <c r="C86" s="31" t="s">
-        <v>261</v>
+      <c r="C86" s="53">
+        <v>40777</v>
       </c>
       <c r="D86" s="22">
         <v>43466</v>
@@ -22441,8 +22468,8 @@
       <c r="B87" s="4">
         <v>2011</v>
       </c>
-      <c r="C87" s="22" t="s">
-        <v>262</v>
+      <c r="C87" s="51">
+        <v>40792</v>
       </c>
       <c r="D87" s="22">
         <v>43466</v>
@@ -22489,7 +22516,7 @@
       <c r="B88" s="4">
         <v>2011</v>
       </c>
-      <c r="C88" s="22">
+      <c r="C88" s="51">
         <v>40812</v>
       </c>
       <c r="D88" s="22">
@@ -22537,8 +22564,8 @@
       <c r="B89" s="4">
         <v>2011</v>
       </c>
-      <c r="C89" s="31" t="s">
-        <v>173</v>
+      <c r="C89" s="53">
+        <v>40833</v>
       </c>
       <c r="D89" s="22">
         <v>43466</v>
@@ -22585,8 +22612,8 @@
       <c r="B90" s="4">
         <v>2011</v>
       </c>
-      <c r="C90" s="22" t="s">
-        <v>176</v>
+      <c r="C90" s="51">
+        <v>40840</v>
       </c>
       <c r="D90" s="22">
         <v>43466</v>
@@ -22633,7 +22660,7 @@
       <c r="B91" s="4">
         <v>2011</v>
       </c>
-      <c r="C91" s="22">
+      <c r="C91" s="51">
         <v>40840</v>
       </c>
       <c r="D91" s="22">
@@ -22681,8 +22708,8 @@
       <c r="B92" s="4">
         <v>2011</v>
       </c>
-      <c r="C92" s="31" t="s">
-        <v>176</v>
+      <c r="C92" s="53">
+        <v>40840</v>
       </c>
       <c r="D92" s="22">
         <v>43466</v>
@@ -22729,8 +22756,8 @@
       <c r="B93" s="4">
         <v>2011</v>
       </c>
-      <c r="C93" s="31" t="s">
-        <v>183</v>
+      <c r="C93" s="53">
+        <v>40847</v>
       </c>
       <c r="D93" s="22">
         <v>43466</v>
@@ -22777,7 +22804,7 @@
       <c r="B94" s="4">
         <v>2011</v>
       </c>
-      <c r="C94" s="30">
+      <c r="C94" s="52">
         <v>40847</v>
       </c>
       <c r="D94" s="22">
@@ -22825,7 +22852,7 @@
       <c r="B95" s="4">
         <v>2011</v>
       </c>
-      <c r="C95" s="22">
+      <c r="C95" s="51">
         <v>40854</v>
       </c>
       <c r="D95" s="22">
@@ -22873,8 +22900,8 @@
       <c r="B96" s="4">
         <v>2011</v>
       </c>
-      <c r="C96" s="31" t="s">
-        <v>263</v>
+      <c r="C96" s="53">
+        <v>40854</v>
       </c>
       <c r="D96" s="22">
         <v>43466</v>
@@ -22921,8 +22948,8 @@
       <c r="B97" s="4">
         <v>2011</v>
       </c>
-      <c r="C97" s="31" t="s">
-        <v>263</v>
+      <c r="C97" s="53">
+        <v>40854</v>
       </c>
       <c r="D97" s="22">
         <v>43466</v>
@@ -22969,8 +22996,8 @@
       <c r="B98" s="4">
         <v>2011</v>
       </c>
-      <c r="C98" s="31" t="s">
-        <v>263</v>
+      <c r="C98" s="53">
+        <v>40854</v>
       </c>
       <c r="D98" s="22">
         <v>43466</v>
@@ -23017,8 +23044,8 @@
       <c r="B99" s="4">
         <v>2011</v>
       </c>
-      <c r="C99" s="31" t="s">
-        <v>195</v>
+      <c r="C99" s="53">
+        <v>40861</v>
       </c>
       <c r="D99" s="22">
         <v>43466</v>
@@ -23065,8 +23092,8 @@
       <c r="B100" s="4">
         <v>2011</v>
       </c>
-      <c r="C100" s="22" t="s">
-        <v>198</v>
+      <c r="C100" s="51">
+        <v>40868</v>
       </c>
       <c r="D100" s="22">
         <v>43466</v>
@@ -23113,7 +23140,7 @@
       <c r="B101" s="4">
         <v>2011</v>
       </c>
-      <c r="C101" s="22">
+      <c r="C101" s="51">
         <v>40875</v>
       </c>
       <c r="D101" s="22">
@@ -23161,8 +23188,8 @@
       <c r="B102" s="4">
         <v>2011</v>
       </c>
-      <c r="C102" s="31" t="s">
-        <v>201</v>
+      <c r="C102" s="53">
+        <v>40875</v>
       </c>
       <c r="D102" s="22">
         <v>43466</v>
@@ -23209,8 +23236,8 @@
       <c r="B103" s="4">
         <v>2012</v>
       </c>
-      <c r="C103" s="31" t="s">
-        <v>264</v>
+      <c r="C103" s="53">
+        <v>40911</v>
       </c>
       <c r="D103" s="22">
         <v>43466</v>
@@ -23257,8 +23284,8 @@
       <c r="B104" s="4">
         <v>2012</v>
       </c>
-      <c r="C104" s="31" t="s">
-        <v>264</v>
+      <c r="C104" s="53">
+        <v>40911</v>
       </c>
       <c r="D104" s="22">
         <v>43466</v>
@@ -23305,7 +23332,7 @@
       <c r="B105" s="4">
         <v>2012</v>
       </c>
-      <c r="C105" s="22">
+      <c r="C105" s="51">
         <v>40911</v>
       </c>
       <c r="D105" s="22">
@@ -23353,7 +23380,7 @@
       <c r="B106" s="4">
         <v>2012</v>
       </c>
-      <c r="C106" s="22">
+      <c r="C106" s="51">
         <v>40924</v>
       </c>
       <c r="D106" s="22">
@@ -23401,8 +23428,8 @@
       <c r="B107" s="4">
         <v>2012</v>
       </c>
-      <c r="C107" s="22" t="s">
-        <v>265</v>
+      <c r="C107" s="51">
+        <v>40931</v>
       </c>
       <c r="D107" s="22">
         <v>43466</v>
@@ -23449,7 +23476,7 @@
       <c r="B108" s="4">
         <v>2012</v>
       </c>
-      <c r="C108" s="22">
+      <c r="C108" s="51">
         <v>41085</v>
       </c>
       <c r="D108" s="22">
@@ -23497,8 +23524,8 @@
       <c r="B109" s="4">
         <v>2012</v>
       </c>
-      <c r="C109" s="31" t="s">
-        <v>266</v>
+      <c r="C109" s="53">
+        <v>41106</v>
       </c>
       <c r="D109" s="22">
         <v>43466</v>
@@ -23545,8 +23572,8 @@
       <c r="B110" s="4">
         <v>2012</v>
       </c>
-      <c r="C110" s="31" t="s">
-        <v>267</v>
+      <c r="C110" s="53">
+        <v>41120</v>
       </c>
       <c r="D110" s="22">
         <v>43466</v>
@@ -23593,7 +23620,7 @@
       <c r="B111" s="4">
         <v>2012</v>
       </c>
-      <c r="C111" s="31">
+      <c r="C111" s="53">
         <v>41127</v>
       </c>
       <c r="D111" s="22">
@@ -23641,8 +23668,8 @@
       <c r="B112" s="4">
         <v>2012</v>
       </c>
-      <c r="C112" s="31" t="s">
-        <v>268</v>
+      <c r="C112" s="53">
+        <v>41127</v>
       </c>
       <c r="D112" s="22">
         <v>43466</v>
@@ -23689,8 +23716,8 @@
       <c r="B113" s="4">
         <v>2012</v>
       </c>
-      <c r="C113" s="31" t="s">
-        <v>269</v>
+      <c r="C113" s="53">
+        <v>41134</v>
       </c>
       <c r="D113" s="22">
         <v>43466</v>
@@ -23737,8 +23764,8 @@
       <c r="B114" s="4">
         <v>2012</v>
       </c>
-      <c r="C114" s="31" t="s">
-        <v>270</v>
+      <c r="C114" s="53">
+        <v>41176</v>
       </c>
       <c r="D114" s="22">
         <v>43466</v>
@@ -23785,8 +23812,8 @@
       <c r="B115" s="4">
         <v>2012</v>
       </c>
-      <c r="C115" s="31" t="s">
-        <v>270</v>
+      <c r="C115" s="53">
+        <v>41176</v>
       </c>
       <c r="D115" s="22">
         <v>43466</v>
@@ -23833,7 +23860,7 @@
       <c r="B116" s="4">
         <v>2012</v>
       </c>
-      <c r="C116" s="22">
+      <c r="C116" s="51">
         <v>41211</v>
       </c>
       <c r="D116" s="22">
@@ -23881,7 +23908,7 @@
       <c r="B117" s="4">
         <v>2013</v>
       </c>
-      <c r="C117" s="22">
+      <c r="C117" s="51">
         <v>41302</v>
       </c>
       <c r="D117" s="22">
@@ -23929,8 +23956,8 @@
       <c r="B118" s="4">
         <v>2013</v>
       </c>
-      <c r="C118" s="31" t="s">
-        <v>271</v>
+      <c r="C118" s="53">
+        <v>41309</v>
       </c>
       <c r="D118" s="22">
         <v>43466</v>
@@ -23977,7 +24004,7 @@
       <c r="B119" s="4">
         <v>2013</v>
       </c>
-      <c r="C119" s="22">
+      <c r="C119" s="51">
         <v>41316</v>
       </c>
       <c r="D119" s="22">
@@ -24025,8 +24052,8 @@
       <c r="B120" s="4">
         <v>2013</v>
       </c>
-      <c r="C120" s="31" t="s">
-        <v>272</v>
+      <c r="C120" s="53">
+        <v>41316</v>
       </c>
       <c r="D120" s="22">
         <v>43466</v>
@@ -24073,8 +24100,8 @@
       <c r="B121" s="4">
         <v>2013</v>
       </c>
-      <c r="C121" s="31" t="s">
-        <v>274</v>
+      <c r="C121" s="53">
+        <v>41379</v>
       </c>
       <c r="D121" s="22">
         <v>43466</v>
@@ -24121,8 +24148,8 @@
       <c r="B122" s="4">
         <v>2013</v>
       </c>
-      <c r="C122" s="31" t="s">
-        <v>277</v>
+      <c r="C122" s="53">
+        <v>41386</v>
       </c>
       <c r="D122" s="22">
         <v>43466</v>
@@ -24169,8 +24196,8 @@
       <c r="B123" s="4">
         <v>2013</v>
       </c>
-      <c r="C123" s="31" t="s">
-        <v>286</v>
+      <c r="C123" s="53">
+        <v>41407</v>
       </c>
       <c r="D123" s="22">
         <v>43466</v>
@@ -24217,8 +24244,8 @@
       <c r="B124" s="4">
         <v>2013</v>
       </c>
-      <c r="C124" s="31" t="s">
-        <v>282</v>
+      <c r="C124" s="53">
+        <v>41414</v>
       </c>
       <c r="D124" s="22">
         <v>43466</v>
@@ -24265,8 +24292,8 @@
       <c r="B125" s="4">
         <v>2013</v>
       </c>
-      <c r="C125" s="31" t="s">
-        <v>283</v>
+      <c r="C125" s="53">
+        <v>41422</v>
       </c>
       <c r="D125" s="22">
         <v>43466</v>
@@ -24313,7 +24340,7 @@
       <c r="B126" s="4">
         <v>2013</v>
       </c>
-      <c r="C126" s="31">
+      <c r="C126" s="53">
         <v>41422</v>
       </c>
       <c r="D126" s="22">
@@ -24361,7 +24388,7 @@
       <c r="B127" s="4">
         <v>2013</v>
       </c>
-      <c r="C127" s="31">
+      <c r="C127" s="53">
         <v>41449</v>
       </c>
       <c r="D127" s="22">
@@ -24409,7 +24436,7 @@
       <c r="B128" s="4">
         <v>2013</v>
       </c>
-      <c r="C128" s="31">
+      <c r="C128" s="53">
         <v>41449</v>
       </c>
       <c r="D128" s="22">
@@ -24457,7 +24484,7 @@
       <c r="B129" s="4">
         <v>2013</v>
       </c>
-      <c r="C129" s="31">
+      <c r="C129" s="53">
         <v>41449</v>
       </c>
       <c r="D129" s="22">
@@ -24505,7 +24532,7 @@
       <c r="B130" s="4">
         <v>2013</v>
       </c>
-      <c r="C130" s="31">
+      <c r="C130" s="53">
         <v>41463</v>
       </c>
       <c r="D130" s="22">
@@ -24553,7 +24580,7 @@
       <c r="B131" s="4">
         <v>2013</v>
       </c>
-      <c r="C131" s="31">
+      <c r="C131" s="53">
         <v>41491</v>
       </c>
       <c r="D131" s="22">
@@ -24601,7 +24628,7 @@
       <c r="B132" s="4">
         <v>2013</v>
       </c>
-      <c r="C132" s="31">
+      <c r="C132" s="53">
         <v>41491</v>
       </c>
       <c r="D132" s="22">
@@ -24649,7 +24676,7 @@
       <c r="B133" s="4">
         <v>2013</v>
       </c>
-      <c r="C133" s="31">
+      <c r="C133" s="53">
         <v>41498</v>
       </c>
       <c r="D133" s="22">
@@ -24697,7 +24724,7 @@
       <c r="B134" s="4">
         <v>2013</v>
       </c>
-      <c r="C134" s="31">
+      <c r="C134" s="53">
         <v>41498</v>
       </c>
       <c r="D134" s="22">
@@ -24745,7 +24772,7 @@
       <c r="B135" s="4">
         <v>2013</v>
       </c>
-      <c r="C135" s="31">
+      <c r="C135" s="53">
         <v>41505</v>
       </c>
       <c r="D135" s="22">
@@ -24793,7 +24820,7 @@
       <c r="B136" s="4">
         <v>2013</v>
       </c>
-      <c r="C136" s="31">
+      <c r="C136" s="53">
         <v>41505</v>
       </c>
       <c r="D136" s="22">
@@ -24841,7 +24868,7 @@
       <c r="B137" s="4">
         <v>2013</v>
       </c>
-      <c r="C137" s="31">
+      <c r="C137" s="53">
         <v>41505</v>
       </c>
       <c r="D137" s="22">
@@ -24889,7 +24916,7 @@
       <c r="B138" s="4">
         <v>2013</v>
       </c>
-      <c r="C138" s="31">
+      <c r="C138" s="53">
         <v>41526</v>
       </c>
       <c r="D138" s="22">
@@ -24937,7 +24964,7 @@
       <c r="B139" s="4">
         <v>2013</v>
       </c>
-      <c r="C139" s="31">
+      <c r="C139" s="53">
         <v>41568</v>
       </c>
       <c r="D139" s="22">
@@ -24985,7 +25012,7 @@
       <c r="B140" s="4">
         <v>2013</v>
       </c>
-      <c r="C140" s="31">
+      <c r="C140" s="53">
         <v>41575</v>
       </c>
       <c r="D140" s="22">
@@ -25033,7 +25060,7 @@
       <c r="B141" s="4">
         <v>2013</v>
       </c>
-      <c r="C141" s="31">
+      <c r="C141" s="53">
         <v>41582</v>
       </c>
       <c r="D141" s="22">
@@ -25081,7 +25108,7 @@
       <c r="B142" s="4">
         <v>2013</v>
       </c>
-      <c r="C142" s="31">
+      <c r="C142" s="53">
         <v>41589</v>
       </c>
       <c r="D142" s="22">
@@ -25129,7 +25156,7 @@
       <c r="B143" s="4">
         <v>2013</v>
       </c>
-      <c r="C143" s="31">
+      <c r="C143" s="53">
         <v>41589</v>
       </c>
       <c r="D143" s="22">
@@ -25177,7 +25204,7 @@
       <c r="B144" s="4">
         <v>2013</v>
       </c>
-      <c r="C144" s="31">
+      <c r="C144" s="53">
         <v>41589</v>
       </c>
       <c r="D144" s="22">
@@ -25225,7 +25252,7 @@
       <c r="B145" s="4">
         <v>2013</v>
       </c>
-      <c r="C145" s="31">
+      <c r="C145" s="53">
         <v>41596</v>
       </c>
       <c r="D145" s="22">
@@ -25273,7 +25300,7 @@
       <c r="B146" s="4">
         <v>2013</v>
       </c>
-      <c r="C146" s="31">
+      <c r="C146" s="53">
         <v>41596</v>
       </c>
       <c r="D146" s="22">
@@ -25321,7 +25348,7 @@
       <c r="B147" s="4">
         <v>2013</v>
       </c>
-      <c r="C147" s="31">
+      <c r="C147" s="53">
         <v>41610</v>
       </c>
       <c r="D147" s="22">
@@ -25369,7 +25396,7 @@
       <c r="B148" s="4">
         <v>2013</v>
       </c>
-      <c r="C148" s="31">
+      <c r="C148" s="53">
         <v>41610</v>
       </c>
       <c r="D148" s="22">
@@ -25417,7 +25444,7 @@
       <c r="B149" s="4">
         <v>2013</v>
       </c>
-      <c r="C149" s="31">
+      <c r="C149" s="53">
         <v>41610</v>
       </c>
       <c r="D149" s="22">
@@ -25465,7 +25492,7 @@
       <c r="B150" s="4">
         <v>2013</v>
       </c>
-      <c r="C150" s="31">
+      <c r="C150" s="53">
         <v>41610</v>
       </c>
       <c r="D150" s="22">
@@ -25513,7 +25540,7 @@
       <c r="B151" s="4">
         <v>2013</v>
       </c>
-      <c r="C151" s="31">
+      <c r="C151" s="53">
         <v>41610</v>
       </c>
       <c r="D151" s="22">
@@ -25561,7 +25588,7 @@
       <c r="B152" s="4">
         <v>2013</v>
       </c>
-      <c r="C152" s="31">
+      <c r="C152" s="53">
         <v>41610</v>
       </c>
       <c r="D152" s="22">
@@ -25609,7 +25636,7 @@
       <c r="B153" s="4">
         <v>2013</v>
       </c>
-      <c r="C153" s="31">
+      <c r="C153" s="53">
         <v>41617</v>
       </c>
       <c r="D153" s="22">
@@ -32150,7 +32177,9 @@
       <c r="H289" s="29" t="s">
         <v>497</v>
       </c>
-      <c r="I289" s="24"/>
+      <c r="I289" s="24">
+        <v>0</v>
+      </c>
       <c r="J289" s="25">
         <f>IFERROR(VLOOKUP(H289,#REF!,2,FALSE),0)</f>
         <v>0</v>
@@ -32195,7 +32224,9 @@
       <c r="H290" s="29" t="s">
         <v>527</v>
       </c>
-      <c r="I290" s="24"/>
+      <c r="I290" s="24">
+        <v>0</v>
+      </c>
       <c r="J290" s="25">
         <f>IFERROR(VLOOKUP(H290,#REF!,2,FALSE),0)</f>
         <v>0</v>
@@ -32334,7 +32365,9 @@
       <c r="H293" s="5" t="s">
         <v>618</v>
       </c>
-      <c r="I293" s="24"/>
+      <c r="I293" s="24">
+        <v>0</v>
+      </c>
       <c r="J293" s="25">
         <f>IFERROR(VLOOKUP(H293,#REF!,2,FALSE),0)</f>
         <v>0</v>
@@ -32661,7 +32694,9 @@
       <c r="H300" s="8" t="s">
         <v>768</v>
       </c>
-      <c r="I300" s="24"/>
+      <c r="I300" s="24">
+        <v>0</v>
+      </c>
       <c r="J300" s="25">
         <f>IFERROR(VLOOKUP(H300,#REF!,2,FALSE),0)</f>
         <v>0</v>
@@ -32801,7 +32836,9 @@
       <c r="H303" s="8" t="s">
         <v>762</v>
       </c>
-      <c r="I303" s="24"/>
+      <c r="I303" s="24">
+        <v>0</v>
+      </c>
       <c r="J303" s="25">
         <f>IFERROR(VLOOKUP(H303,#REF!,2,FALSE),0)</f>
         <v>0</v>
@@ -32821,6 +32858,7 @@
       </c>
       <c r="O303" s="8"/>
     </row>
+    <row r="304" spans="1:15" s="55" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Barton1792DB/Barton1792DB/Barton1792DB/bin/DataFiles/Copy of MASTER SENIORITY LISTING.xlsx
+++ b/Barton1792DB/Barton1792DB/Barton1792DB/bin/DataFiles/Copy of MASTER SENIORITY LISTING.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Telahun\Documents\School\CECS596\Barton1792\Barton1792API\BartonAPI\Barton1792DB\Barton1792DB\Barton1792DB\bin\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F5F1DA1-DD7B-47F0-983C-4D8644A09E28}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28B76F54-F324-43B5-809C-B67217925752}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6240" yWindow="915" windowWidth="28800" windowHeight="15435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2731" uniqueCount="829">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2735" uniqueCount="829">
   <si>
     <t>EMPLOYEE NAME</t>
   </si>
@@ -18309,10 +18309,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37244190-D222-4663-AC6D-2030567E4A09}">
-  <dimension ref="A1:O304"/>
+  <dimension ref="A1:O305"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A282" workbookViewId="0">
-      <selection activeCell="H301" sqref="H301"/>
+    <sheetView tabSelected="1" topLeftCell="A281" workbookViewId="0">
+      <selection activeCell="I305" sqref="I305"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18427,7 +18427,10 @@
       <c r="N2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="8"/>
+      <c r="O2">
+        <f ca="1">RANDBETWEEN(1,3)</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="3" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
@@ -18475,7 +18478,10 @@
       <c r="N3" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="O3" s="8"/>
+      <c r="O3">
+        <f t="shared" ref="O3:Q66" ca="1" si="2">RANDBETWEEN(1,3)</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="4" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
@@ -18523,7 +18529,10 @@
       <c r="N4" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="O4" s="8"/>
+      <c r="O4">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
@@ -18571,7 +18580,10 @@
       <c r="N5" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="O5" s="8"/>
+      <c r="O5">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="6" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -18619,7 +18631,10 @@
       <c r="N6" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="O6" s="8"/>
+      <c r="O6">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="7" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
@@ -18667,7 +18682,10 @@
       <c r="N7" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="O7" s="8"/>
+      <c r="O7">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="8" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
@@ -18715,7 +18733,10 @@
       <c r="N8" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="O8" s="8"/>
+      <c r="O8">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
@@ -18763,7 +18784,10 @@
       <c r="N9" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="O9" s="8"/>
+      <c r="O9">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="10" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
@@ -18811,7 +18835,10 @@
       <c r="N10" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="O10" s="8"/>
+      <c r="O10">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="11" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
@@ -18859,7 +18886,10 @@
       <c r="N11" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="O11" s="8"/>
+      <c r="O11">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="12" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
@@ -18907,7 +18937,10 @@
       <c r="N12" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="O12" s="8"/>
+      <c r="O12">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="13" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
@@ -18955,7 +18988,10 @@
       <c r="N13" s="27" t="s">
         <v>276</v>
       </c>
-      <c r="O13" s="8"/>
+      <c r="O13">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
@@ -19003,7 +19039,10 @@
       <c r="N14" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="O14" s="8"/>
+      <c r="O14">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="15" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
@@ -19051,7 +19090,10 @@
       <c r="N15" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="O15" s="8"/>
+      <c r="O15">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="16" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
@@ -19099,7 +19141,10 @@
       <c r="N16" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="O16" s="8"/>
+      <c r="O16">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="17" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
@@ -19147,7 +19192,10 @@
       <c r="N17" s="27" t="s">
         <v>276</v>
       </c>
-      <c r="O17" s="8"/>
+      <c r="O17">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
@@ -19195,7 +19243,10 @@
       <c r="N18" s="27" t="s">
         <v>276</v>
       </c>
-      <c r="O18" s="8"/>
+      <c r="O18">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="19" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
@@ -19243,7 +19294,10 @@
       <c r="N19" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="O19" s="8"/>
+      <c r="O19">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
@@ -19291,7 +19345,10 @@
       <c r="N20" s="27" t="s">
         <v>276</v>
       </c>
-      <c r="O20" s="8"/>
+      <c r="O20">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
@@ -19339,7 +19396,10 @@
       <c r="N21" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="O21" s="8"/>
+      <c r="O21">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="22" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
@@ -19387,7 +19447,10 @@
       <c r="N22" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="O22" s="8"/>
+      <c r="O22">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
@@ -19435,7 +19498,10 @@
       <c r="N23" s="27" t="s">
         <v>276</v>
       </c>
-      <c r="O23" s="8"/>
+      <c r="O23">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="24" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
@@ -19483,7 +19549,10 @@
       <c r="N24" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="O24" s="8"/>
+      <c r="O24">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="25" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
@@ -19531,7 +19600,10 @@
       <c r="N25" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="O25" s="8"/>
+      <c r="O25">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="26" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
@@ -19579,7 +19651,10 @@
       <c r="N26" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="O26" s="8"/>
+      <c r="O26">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
@@ -19627,7 +19702,10 @@
       <c r="N27" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="O27" s="8"/>
+      <c r="O27">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="28" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
@@ -19675,7 +19753,10 @@
       <c r="N28" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="O28" s="8"/>
+      <c r="O28">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="29" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
@@ -19723,7 +19804,10 @@
       <c r="N29" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="O29" s="8"/>
+      <c r="O29">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="30" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
@@ -19771,7 +19855,10 @@
       <c r="N30" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="O30" s="8"/>
+      <c r="O30">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="31" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
@@ -19819,7 +19906,10 @@
       <c r="N31" s="27" t="s">
         <v>276</v>
       </c>
-      <c r="O31" s="8"/>
+      <c r="O31">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="32" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
@@ -19867,7 +19957,10 @@
       <c r="N32" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="O32" s="8"/>
+      <c r="O32">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="33" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
@@ -19915,7 +20008,10 @@
       <c r="N33" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="O33" s="8"/>
+      <c r="O33">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="34" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
@@ -19963,7 +20059,10 @@
       <c r="N34" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="O34" s="8"/>
+      <c r="O34">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="35" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
@@ -20011,7 +20110,10 @@
       <c r="N35" s="16" t="s">
         <v>276</v>
       </c>
-      <c r="O35" s="8"/>
+      <c r="O35">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="36" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
@@ -20059,7 +20161,10 @@
       <c r="N36" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="O36" s="8"/>
+      <c r="O36">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="37" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
@@ -20107,7 +20212,10 @@
       <c r="N37" s="16" t="s">
         <v>276</v>
       </c>
-      <c r="O37" s="8"/>
+      <c r="O37">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="38" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
@@ -20155,7 +20263,10 @@
       <c r="N38" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="O38" s="8"/>
+      <c r="O38">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="39" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
@@ -20203,7 +20314,10 @@
       <c r="N39" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="O39" s="8"/>
+      <c r="O39">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="40" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
@@ -20251,7 +20365,10 @@
       <c r="N40" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="O40" s="8"/>
+      <c r="O40">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="41" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
@@ -20299,7 +20416,10 @@
       <c r="N41" s="16" t="s">
         <v>276</v>
       </c>
-      <c r="O41" s="8"/>
+      <c r="O41">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="42" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
@@ -20347,7 +20467,10 @@
       <c r="N42" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="O42" s="8"/>
+      <c r="O42">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="43" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
@@ -20395,7 +20518,10 @@
       <c r="N43" s="16" t="s">
         <v>276</v>
       </c>
-      <c r="O43" s="8"/>
+      <c r="O43">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="44" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
@@ -20443,7 +20569,10 @@
       <c r="N44" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="O44" s="8"/>
+      <c r="O44">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="45" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
@@ -20491,7 +20620,10 @@
       <c r="N45" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="O45" s="8"/>
+      <c r="O45">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="46" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
@@ -20539,7 +20671,10 @@
       <c r="N46" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="O46" s="8"/>
+      <c r="O46">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="47" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
@@ -20587,7 +20722,10 @@
       <c r="N47" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="O47" s="8"/>
+      <c r="O47">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="48" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
@@ -20635,7 +20773,10 @@
       <c r="N48" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="O48" s="8"/>
+      <c r="O48">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="49" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
@@ -20683,7 +20824,10 @@
       <c r="N49" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="O49" s="8"/>
+      <c r="O49">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="50" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
@@ -20731,7 +20875,10 @@
       <c r="N50" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="O50" s="8"/>
+      <c r="O50">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="51" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
@@ -20779,7 +20926,10 @@
       <c r="N51" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="O51" s="8"/>
+      <c r="O51">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="52" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
@@ -20827,7 +20977,10 @@
       <c r="N52" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="O52" s="8"/>
+      <c r="O52">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="53" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
@@ -20875,7 +21028,10 @@
       <c r="N53" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="O53" s="8"/>
+      <c r="O53">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="54" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
@@ -20923,7 +21079,10 @@
       <c r="N54" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="O54" s="8"/>
+      <c r="O54">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="55" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
@@ -20971,7 +21130,10 @@
       <c r="N55" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="O55" s="8"/>
+      <c r="O55">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="56" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
@@ -21019,7 +21181,10 @@
       <c r="N56" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="O56" s="8"/>
+      <c r="O56">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="57" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
@@ -21067,7 +21232,10 @@
       <c r="N57" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="O57" s="8"/>
+      <c r="O57">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="58" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -21115,7 +21283,10 @@
       <c r="N58" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="O58" s="8"/>
+      <c r="O58">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="59" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -21163,7 +21334,10 @@
       <c r="N59" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="O59" s="8"/>
+      <c r="O59">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="60" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
@@ -21211,7 +21385,10 @@
       <c r="N60" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="O60" s="8"/>
+      <c r="O60">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="61" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
@@ -21259,7 +21436,10 @@
       <c r="N61" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="O61" s="8"/>
+      <c r="O61">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="62" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
@@ -21307,7 +21487,10 @@
       <c r="N62" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="O62" s="8"/>
+      <c r="O62">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="63" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
@@ -21355,7 +21538,10 @@
       <c r="N63" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="O63" s="8"/>
+      <c r="O63">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="64" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
@@ -21403,7 +21589,10 @@
       <c r="N64" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="O64" s="8"/>
+      <c r="O64">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="65" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
@@ -21451,7 +21640,10 @@
       <c r="N65" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="O65" s="8"/>
+      <c r="O65">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="66" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
@@ -21470,7 +21662,7 @@
         <v>11.739726027397261</v>
       </c>
       <c r="F66" s="24">
-        <f t="shared" ref="F66:F129" si="2">ROUNDUP(E66,0)</f>
+        <f t="shared" ref="F66:F129" si="3">ROUNDUP(E66,0)</f>
         <v>12</v>
       </c>
       <c r="G66" s="5" t="s">
@@ -21487,7 +21679,7 @@
         <v>0</v>
       </c>
       <c r="K66" s="25">
-        <f t="shared" ref="K66:K129" si="3">SUM(I66:J66)</f>
+        <f t="shared" ref="K66:K129" si="4">SUM(I66:J66)</f>
         <v>40</v>
       </c>
       <c r="L66" s="37">
@@ -21499,7 +21691,10 @@
       <c r="N66" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="O66" s="8"/>
+      <c r="O66">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="67" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
@@ -21518,7 +21713,7 @@
         <v>11.432876712328767</v>
       </c>
       <c r="F67" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="G67" s="5" t="s">
@@ -21535,7 +21730,7 @@
         <v>0</v>
       </c>
       <c r="K67" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>40</v>
       </c>
       <c r="L67" s="37">
@@ -21547,7 +21742,10 @@
       <c r="N67" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="O67" s="8"/>
+      <c r="O67">
+        <f t="shared" ref="O67:Q130" ca="1" si="5">RANDBETWEEN(1,3)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="68" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
@@ -21566,7 +21764,7 @@
         <v>11.375342465753425</v>
       </c>
       <c r="F68" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="G68" s="5" t="s">
@@ -21583,7 +21781,7 @@
         <v>0</v>
       </c>
       <c r="K68" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>40</v>
       </c>
       <c r="L68" s="37">
@@ -21595,7 +21793,10 @@
       <c r="N68" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="O68" s="8"/>
+      <c r="O68">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="69" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
@@ -21614,7 +21815,7 @@
         <v>11.087671232876712</v>
       </c>
       <c r="F69" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="G69" s="5" t="s">
@@ -21631,7 +21832,7 @@
         <v>0</v>
       </c>
       <c r="K69" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>40</v>
       </c>
       <c r="L69" s="37">
@@ -21643,7 +21844,10 @@
       <c r="N69" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="O69" s="8"/>
+      <c r="O69">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="70" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
@@ -21662,7 +21866,7 @@
         <v>10.991780821917809</v>
       </c>
       <c r="F70" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="G70" s="5" t="s">
@@ -21679,7 +21883,7 @@
         <v>0</v>
       </c>
       <c r="K70" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>40</v>
       </c>
       <c r="L70" s="37">
@@ -21691,7 +21895,10 @@
       <c r="N70" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="O70" s="8"/>
+      <c r="O70">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="71" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
@@ -21710,7 +21917,7 @@
         <v>10.953424657534246</v>
       </c>
       <c r="F71" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="G71" s="6" t="s">
@@ -21727,7 +21934,7 @@
         <v>0</v>
       </c>
       <c r="K71" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>40</v>
       </c>
       <c r="L71" s="38" t="s">
@@ -21739,7 +21946,10 @@
       <c r="N71" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="O71" s="8"/>
+      <c r="O71">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="72" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
@@ -21758,7 +21968,7 @@
         <v>10.336986301369864</v>
       </c>
       <c r="F72" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="G72" s="6" t="s">
@@ -21775,7 +21985,7 @@
         <v>0</v>
       </c>
       <c r="K72" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>40</v>
       </c>
       <c r="L72" s="38" t="s">
@@ -21787,7 +21997,10 @@
       <c r="N72" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="O72" s="8"/>
+      <c r="O72">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="73" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
@@ -21806,7 +22019,7 @@
         <v>10.128767123287671</v>
       </c>
       <c r="F73" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="G73" s="6" t="s">
@@ -21823,7 +22036,7 @@
         <v>0</v>
       </c>
       <c r="K73" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>40</v>
       </c>
       <c r="L73" s="38" t="s">
@@ -21835,7 +22048,10 @@
       <c r="N73" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="O73" s="8"/>
+      <c r="O73">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="74" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
@@ -21854,7 +22070,7 @@
         <v>8.4027397260273968</v>
       </c>
       <c r="F74" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="G74" s="6" t="s">
@@ -21871,7 +22087,7 @@
         <v>0</v>
       </c>
       <c r="K74" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="L74" s="38" t="s">
@@ -21883,7 +22099,10 @@
       <c r="N74" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="O74" s="8"/>
+      <c r="O74">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="75" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
@@ -21902,7 +22121,7 @@
         <v>8.4027397260273968</v>
       </c>
       <c r="F75" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="G75" s="6" t="s">
@@ -21919,7 +22138,7 @@
         <v>0</v>
       </c>
       <c r="K75" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="L75" s="38" t="s">
@@ -21931,7 +22150,10 @@
       <c r="N75" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="O75" s="8"/>
+      <c r="O75">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="76" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
@@ -21950,7 +22172,7 @@
         <v>8.4027397260273968</v>
       </c>
       <c r="F76" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="G76" s="6" t="s">
@@ -21967,7 +22189,7 @@
         <v>0</v>
       </c>
       <c r="K76" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="L76" s="38" t="s">
@@ -21979,7 +22201,10 @@
       <c r="N76" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="O76" s="8"/>
+      <c r="O76">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="77" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
@@ -21998,7 +22223,7 @@
         <v>8.4027397260273968</v>
       </c>
       <c r="F77" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="G77" s="6" t="s">
@@ -22015,7 +22240,7 @@
         <v>0</v>
       </c>
       <c r="K77" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="L77" s="38" t="s">
@@ -22027,7 +22252,10 @@
       <c r="N77" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="O77" s="8"/>
+      <c r="O77">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="78" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
@@ -22046,7 +22274,7 @@
         <v>8.3835616438356162</v>
       </c>
       <c r="F78" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="G78" s="6" t="s">
@@ -22063,7 +22291,7 @@
         <v>0</v>
       </c>
       <c r="K78" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="L78" s="38" t="s">
@@ -22075,7 +22303,10 @@
       <c r="N78" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="O78" s="8"/>
+      <c r="O78">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="79" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
@@ -22094,7 +22325,7 @@
         <v>8.3835616438356162</v>
       </c>
       <c r="F79" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="G79" s="6" t="s">
@@ -22111,7 +22342,7 @@
         <v>0</v>
       </c>
       <c r="K79" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="L79" s="38" t="s">
@@ -22123,7 +22354,10 @@
       <c r="N79" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="O79" s="8"/>
+      <c r="O79">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="80" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
@@ -22142,7 +22376,7 @@
         <v>8.3835616438356162</v>
       </c>
       <c r="F80" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="G80" s="6" t="s">
@@ -22159,7 +22393,7 @@
         <v>0</v>
       </c>
       <c r="K80" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="L80" s="38" t="s">
@@ -22171,7 +22405,10 @@
       <c r="N80" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="O80" s="8"/>
+      <c r="O80">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="81" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
@@ -22190,7 +22427,7 @@
         <v>8.3835616438356162</v>
       </c>
       <c r="F81" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="G81" s="6" t="s">
@@ -22207,7 +22444,7 @@
         <v>0</v>
       </c>
       <c r="K81" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="L81" s="38" t="s">
@@ -22219,7 +22456,10 @@
       <c r="N81" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="O81" s="8"/>
+      <c r="O81">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="82" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
@@ -22238,7 +22478,7 @@
         <v>8.3452054794520549</v>
       </c>
       <c r="F82" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="G82" s="6" t="s">
@@ -22255,7 +22495,7 @@
         <v>0</v>
       </c>
       <c r="K82" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="L82" s="38" t="s">
@@ -22267,7 +22507,10 @@
       <c r="N82" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="O82" s="8"/>
+      <c r="O82">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="83" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
@@ -22286,7 +22529,7 @@
         <v>7.0986301369863014</v>
       </c>
       <c r="F83" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="G83" s="6" t="s">
@@ -22303,7 +22546,7 @@
         <v>0</v>
       </c>
       <c r="K83" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="L83" s="39">
@@ -22315,7 +22558,10 @@
       <c r="N83" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="O83" s="8"/>
+      <c r="O83">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="84" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
@@ -22334,7 +22580,7 @@
         <v>7.3863013698630136</v>
       </c>
       <c r="F84" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="G84" s="6" t="s">
@@ -22351,7 +22597,7 @@
         <v>0</v>
       </c>
       <c r="K84" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="L84" s="38" t="s">
@@ -22363,7 +22609,10 @@
       <c r="N84" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="O84" s="8"/>
+      <c r="O84">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="85" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
@@ -22382,7 +22631,7 @@
         <v>7.3671232876712329</v>
       </c>
       <c r="F85" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="G85" s="6" t="s">
@@ -22399,7 +22648,7 @@
         <v>0</v>
       </c>
       <c r="K85" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="L85" s="38" t="s">
@@ -22411,7 +22660,10 @@
       <c r="N85" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="O85" s="8"/>
+      <c r="O85">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="86" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
@@ -22430,7 +22682,7 @@
         <v>7.3671232876712329</v>
       </c>
       <c r="F86" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="G86" s="6" t="s">
@@ -22447,7 +22699,7 @@
         <v>0</v>
       </c>
       <c r="K86" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="L86" s="38" t="s">
@@ -22459,7 +22711,10 @@
       <c r="N86" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="O86" s="8"/>
+      <c r="O86">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="87" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
@@ -22478,7 +22733,7 @@
         <v>7.3260273972602743</v>
       </c>
       <c r="F87" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="G87" s="6" t="s">
@@ -22495,7 +22750,7 @@
         <v>0</v>
       </c>
       <c r="K87" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="L87" s="38" t="s">
@@ -22507,7 +22762,10 @@
       <c r="N87" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="O87" s="8"/>
+      <c r="O87">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="88" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
@@ -22526,7 +22784,7 @@
         <v>7.2712328767123289</v>
       </c>
       <c r="F88" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="G88" s="6" t="s">
@@ -22543,7 +22801,7 @@
         <v>0</v>
       </c>
       <c r="K88" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="L88" s="38" t="s">
@@ -22555,7 +22813,10 @@
       <c r="N88" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="O88" s="8"/>
+      <c r="O88">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="89" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
@@ -22574,7 +22835,7 @@
         <v>7.2136986301369861</v>
       </c>
       <c r="F89" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="G89" s="6" t="s">
@@ -22591,7 +22852,7 @@
         <v>0</v>
       </c>
       <c r="K89" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="L89" s="38" t="s">
@@ -22603,7 +22864,10 @@
       <c r="N89" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="O89" s="8"/>
+      <c r="O89">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="90" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
@@ -22622,7 +22886,7 @@
         <v>7.1945205479452055</v>
       </c>
       <c r="F90" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="G90" s="6" t="s">
@@ -22639,7 +22903,7 @@
         <v>0</v>
       </c>
       <c r="K90" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="L90" s="38" t="s">
@@ -22651,7 +22915,10 @@
       <c r="N90" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="O90" s="8"/>
+      <c r="O90">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="91" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
@@ -22670,7 +22937,7 @@
         <v>7.1945205479452055</v>
       </c>
       <c r="F91" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="G91" s="6" t="s">
@@ -22687,7 +22954,7 @@
         <v>0</v>
       </c>
       <c r="K91" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="L91" s="38" t="s">
@@ -22699,7 +22966,10 @@
       <c r="N91" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="O91" s="8"/>
+      <c r="O91">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="92" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
@@ -22718,7 +22988,7 @@
         <v>7.1945205479452055</v>
       </c>
       <c r="F92" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="G92" s="6" t="s">
@@ -22735,7 +23005,7 @@
         <v>0</v>
       </c>
       <c r="K92" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="L92" s="38" t="s">
@@ -22747,7 +23017,10 @@
       <c r="N92" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="O92" s="8"/>
+      <c r="O92">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="93" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
@@ -22766,7 +23039,7 @@
         <v>7.1753424657534248</v>
       </c>
       <c r="F93" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="G93" s="6" t="s">
@@ -22783,7 +23056,7 @@
         <v>0</v>
       </c>
       <c r="K93" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="L93" s="38" t="s">
@@ -22795,7 +23068,10 @@
       <c r="N93" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="O93" s="8"/>
+      <c r="O93">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="94" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
@@ -22814,7 +23090,7 @@
         <v>7.1753424657534248</v>
       </c>
       <c r="F94" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="G94" s="6" t="s">
@@ -22831,7 +23107,7 @@
         <v>0</v>
       </c>
       <c r="K94" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="L94" s="38" t="s">
@@ -22843,7 +23119,10 @@
       <c r="N94" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="O94" s="8"/>
+      <c r="O94">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="95" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A95" s="4">
@@ -22862,7 +23141,7 @@
         <v>7.1561643835616442</v>
       </c>
       <c r="F95" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="G95" s="6" t="s">
@@ -22879,7 +23158,7 @@
         <v>0</v>
       </c>
       <c r="K95" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="L95" s="38" t="s">
@@ -22891,7 +23170,10 @@
       <c r="N95" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="O95" s="8"/>
+      <c r="O95">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="96" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
@@ -22910,7 +23192,7 @@
         <v>7.1561643835616442</v>
       </c>
       <c r="F96" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="G96" s="6" t="s">
@@ -22927,7 +23209,7 @@
         <v>0</v>
       </c>
       <c r="K96" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="L96" s="38" t="s">
@@ -22939,7 +23221,10 @@
       <c r="N96" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="O96" s="8"/>
+      <c r="O96">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="97" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
@@ -22958,7 +23243,7 @@
         <v>7.1561643835616442</v>
       </c>
       <c r="F97" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="G97" s="6" t="s">
@@ -22975,7 +23260,7 @@
         <v>0</v>
       </c>
       <c r="K97" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="L97" s="38" t="s">
@@ -22987,7 +23272,10 @@
       <c r="N97" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="O97" s="8"/>
+      <c r="O97">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="98" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
@@ -23006,7 +23294,7 @@
         <v>7.1561643835616442</v>
       </c>
       <c r="F98" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="G98" s="6" t="s">
@@ -23023,7 +23311,7 @@
         <v>0</v>
       </c>
       <c r="K98" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="L98" s="38" t="s">
@@ -23035,7 +23323,10 @@
       <c r="N98" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="O98" s="8"/>
+      <c r="O98">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="99" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
@@ -23054,7 +23345,7 @@
         <v>7.1369863013698627</v>
       </c>
       <c r="F99" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="G99" s="6" t="s">
@@ -23071,7 +23362,7 @@
         <v>0</v>
       </c>
       <c r="K99" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="L99" s="38" t="s">
@@ -23083,7 +23374,10 @@
       <c r="N99" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="O99" s="8"/>
+      <c r="O99">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="100" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
@@ -23102,7 +23396,7 @@
         <v>7.117808219178082</v>
       </c>
       <c r="F100" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="G100" s="6" t="s">
@@ -23119,7 +23413,7 @@
         <v>0</v>
       </c>
       <c r="K100" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="L100" s="38" t="s">
@@ -23131,7 +23425,10 @@
       <c r="N100" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="O100" s="8"/>
+      <c r="O100">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="101" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
@@ -23150,7 +23447,7 @@
         <v>7.0986301369863014</v>
       </c>
       <c r="F101" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="G101" s="6" t="s">
@@ -23167,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="K101" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="L101" s="38" t="s">
@@ -23179,7 +23476,10 @@
       <c r="N101" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="O101" s="8"/>
+      <c r="O101">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="102" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
@@ -23198,7 +23498,7 @@
         <v>7.0986301369863014</v>
       </c>
       <c r="F102" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="G102" s="6" t="s">
@@ -23215,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="K102" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="L102" s="38" t="s">
@@ -23227,7 +23527,10 @@
       <c r="N102" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="O102" s="8"/>
+      <c r="O102">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="103" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A103" s="4">
@@ -23246,7 +23549,7 @@
         <v>7</v>
       </c>
       <c r="F103" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="G103" s="6" t="s">
@@ -23263,7 +23566,7 @@
         <v>0</v>
       </c>
       <c r="K103" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="L103" s="38" t="s">
@@ -23275,7 +23578,10 @@
       <c r="N103" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="O103" s="8"/>
+      <c r="O103">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="104" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A104" s="4">
@@ -23294,7 +23600,7 @@
         <v>7</v>
       </c>
       <c r="F104" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="G104" s="6" t="s">
@@ -23311,7 +23617,7 @@
         <v>0</v>
       </c>
       <c r="K104" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="L104" s="38" t="s">
@@ -23323,7 +23629,10 @@
       <c r="N104" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="O104" s="8"/>
+      <c r="O104">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="105" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A105" s="4">
@@ -23342,7 +23651,7 @@
         <v>7</v>
       </c>
       <c r="F105" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="G105" s="6" t="s">
@@ -23359,7 +23668,7 @@
         <v>0</v>
       </c>
       <c r="K105" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="L105" s="38" t="s">
@@ -23371,7 +23680,10 @@
       <c r="N105" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="O105" s="8"/>
+      <c r="O105">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="106" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A106" s="4">
@@ -23390,7 +23702,7 @@
         <v>6.9643835616438352</v>
       </c>
       <c r="F106" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="G106" s="6" t="s">
@@ -23407,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="K106" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="L106" s="38" t="s">
@@ -23419,7 +23731,10 @@
       <c r="N106" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="O106" s="8"/>
+      <c r="O106">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="107" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A107" s="4">
@@ -23438,7 +23753,7 @@
         <v>6.9452054794520546</v>
       </c>
       <c r="F107" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="G107" s="6" t="s">
@@ -23455,7 +23770,7 @@
         <v>0</v>
       </c>
       <c r="K107" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="L107" s="38" t="s">
@@ -23467,7 +23782,10 @@
       <c r="N107" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="O107" s="8"/>
+      <c r="O107">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="108" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A108" s="4">
@@ -23486,7 +23804,7 @@
         <v>6.5232876712328771</v>
       </c>
       <c r="F108" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="G108" s="6" t="s">
@@ -23503,7 +23821,7 @@
         <v>0</v>
       </c>
       <c r="K108" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="L108" s="38" t="s">
@@ -23515,7 +23833,10 @@
       <c r="N108" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="O108" s="8"/>
+      <c r="O108">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="109" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A109" s="4">
@@ -23534,7 +23855,7 @@
         <v>6.4657534246575343</v>
       </c>
       <c r="F109" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="G109" s="6" t="s">
@@ -23551,7 +23872,7 @@
         <v>0</v>
       </c>
       <c r="K109" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="L109" s="38" t="s">
@@ -23563,7 +23884,10 @@
       <c r="N109" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="O109" s="8"/>
+      <c r="O109">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="110" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A110" s="4">
@@ -23582,7 +23906,7 @@
         <v>6.4273972602739722</v>
       </c>
       <c r="F110" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="G110" s="6" t="s">
@@ -23599,7 +23923,7 @@
         <v>0</v>
       </c>
       <c r="K110" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="L110" s="38" t="s">
@@ -23611,7 +23935,10 @@
       <c r="N110" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="O110" s="8"/>
+      <c r="O110">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="111" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A111" s="4">
@@ -23630,7 +23957,7 @@
         <v>6.4082191780821915</v>
       </c>
       <c r="F111" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="G111" s="6" t="s">
@@ -23647,7 +23974,7 @@
         <v>0</v>
       </c>
       <c r="K111" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="L111" s="38" t="s">
@@ -23659,7 +23986,10 @@
       <c r="N111" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="O111" s="8"/>
+      <c r="O111">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="112" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A112" s="4">
@@ -23678,7 +24008,7 @@
         <v>6.4082191780821915</v>
       </c>
       <c r="F112" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="G112" s="6" t="s">
@@ -23695,7 +24025,7 @@
         <v>0</v>
       </c>
       <c r="K112" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="L112" s="38" t="s">
@@ -23707,7 +24037,10 @@
       <c r="N112" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="O112" s="8"/>
+      <c r="O112">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="113" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A113" s="4">
@@ -23726,7 +24059,7 @@
         <v>6.3890410958904109</v>
       </c>
       <c r="F113" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="G113" s="6" t="s">
@@ -23743,7 +24076,7 @@
         <v>0</v>
       </c>
       <c r="K113" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="L113" s="38" t="s">
@@ -23755,7 +24088,10 @@
       <c r="N113" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="O113" s="8"/>
+      <c r="O113">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="114" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A114" s="4">
@@ -23774,7 +24110,7 @@
         <v>6.2739726027397262</v>
       </c>
       <c r="F114" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="G114" s="6" t="s">
@@ -23791,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="K114" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="L114" s="38" t="s">
@@ -23803,7 +24139,10 @@
       <c r="N114" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="O114" s="8"/>
+      <c r="O114">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="115" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A115" s="4">
@@ -23822,7 +24161,7 @@
         <v>6.2739726027397262</v>
       </c>
       <c r="F115" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="G115" s="6" t="s">
@@ -23839,7 +24178,7 @@
         <v>0</v>
       </c>
       <c r="K115" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="L115" s="38" t="s">
@@ -23851,7 +24190,10 @@
       <c r="N115" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="O115" s="8"/>
+      <c r="O115">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="116" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A116" s="4">
@@ -23870,7 +24212,7 @@
         <v>6.1780821917808222</v>
       </c>
       <c r="F116" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="G116" s="6" t="s">
@@ -23887,7 +24229,7 @@
         <v>0</v>
       </c>
       <c r="K116" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="L116" s="38" t="s">
@@ -23899,7 +24241,10 @@
       <c r="N116" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="O116" s="8"/>
+      <c r="O116">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="117" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A117" s="4">
@@ -23918,7 +24263,7 @@
         <v>5.9287671232876713</v>
       </c>
       <c r="F117" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="G117" s="6" t="s">
@@ -23935,7 +24280,7 @@
         <v>0</v>
       </c>
       <c r="K117" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="L117" s="38" t="s">
@@ -23947,7 +24292,10 @@
       <c r="N117" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="O117" s="8"/>
+      <c r="O117">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="118" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A118" s="4">
@@ -23966,7 +24314,7 @@
         <v>5.9095890410958907</v>
       </c>
       <c r="F118" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="G118" s="6" t="s">
@@ -23983,7 +24331,7 @@
         <v>0</v>
       </c>
       <c r="K118" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="L118" s="38" t="s">
@@ -23995,7 +24343,10 @@
       <c r="N118" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="O118" s="8"/>
+      <c r="O118">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="119" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A119" s="4">
@@ -24014,7 +24365,7 @@
         <v>5.8904109589041092</v>
       </c>
       <c r="F119" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="G119" s="6" t="s">
@@ -24031,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="K119" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="L119" s="38" t="s">
@@ -24043,7 +24394,10 @@
       <c r="N119" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="O119" s="8"/>
+      <c r="O119">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="120" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A120" s="4">
@@ -24062,7 +24416,7 @@
         <v>5.8904109589041092</v>
       </c>
       <c r="F120" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="G120" s="6" t="s">
@@ -24079,7 +24433,7 @@
         <v>0</v>
       </c>
       <c r="K120" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="L120" s="40" t="s">
@@ -24091,7 +24445,10 @@
       <c r="N120" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="O120" s="8"/>
+      <c r="O120">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="121" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A121" s="4">
@@ -24110,7 +24467,7 @@
         <v>5.7178082191780826</v>
       </c>
       <c r="F121" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="G121" s="6" t="s">
@@ -24127,7 +24484,7 @@
         <v>0</v>
       </c>
       <c r="K121" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="L121" s="38" t="s">
@@ -24139,7 +24496,10 @@
       <c r="N121" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="O121" s="8"/>
+      <c r="O121">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="122" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A122" s="4">
@@ -24158,7 +24518,7 @@
         <v>5.6986301369863011</v>
       </c>
       <c r="F122" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="G122" s="6" t="s">
@@ -24175,7 +24535,7 @@
         <v>0</v>
       </c>
       <c r="K122" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="L122" s="38" t="s">
@@ -24187,7 +24547,10 @@
       <c r="N122" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="O122" s="8"/>
+      <c r="O122">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="123" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A123" s="4">
@@ -24206,7 +24569,7 @@
         <v>5.6410958904109592</v>
       </c>
       <c r="F123" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="G123" s="16" t="s">
@@ -24223,7 +24586,7 @@
         <v>0</v>
       </c>
       <c r="K123" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="L123" s="26">
@@ -24235,7 +24598,10 @@
       <c r="N123" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="O123" s="8"/>
+      <c r="O123">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="124" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A124" s="4">
@@ -24254,7 +24620,7 @@
         <v>5.6219178082191785</v>
       </c>
       <c r="F124" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="G124" s="6" t="s">
@@ -24271,7 +24637,7 @@
         <v>0</v>
       </c>
       <c r="K124" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="L124" s="38" t="s">
@@ -24283,7 +24649,10 @@
       <c r="N124" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="O124" s="8"/>
+      <c r="O124">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="125" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A125" s="4">
@@ -24302,7 +24671,7 @@
         <v>5.6</v>
       </c>
       <c r="F125" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="G125" s="6" t="s">
@@ -24319,7 +24688,7 @@
         <v>0</v>
       </c>
       <c r="K125" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="L125" s="38" t="s">
@@ -24331,7 +24700,10 @@
       <c r="N125" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="O125" s="8"/>
+      <c r="O125">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="126" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A126" s="4">
@@ -24350,7 +24722,7 @@
         <v>5.6</v>
       </c>
       <c r="F126" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="G126" s="6" t="s">
@@ -24367,7 +24739,7 @@
         <v>0</v>
       </c>
       <c r="K126" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="L126" s="38" t="s">
@@ -24379,7 +24751,10 @@
       <c r="N126" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="O126" s="8"/>
+      <c r="O126">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="127" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A127" s="4">
@@ -24398,7 +24773,7 @@
         <v>5.5260273972602736</v>
       </c>
       <c r="F127" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="G127" s="6" t="s">
@@ -24415,7 +24790,7 @@
         <v>0</v>
       </c>
       <c r="K127" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="L127" s="38" t="s">
@@ -24427,7 +24802,10 @@
       <c r="N127" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="O127" s="8"/>
+      <c r="O127">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="128" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A128" s="4">
@@ -24446,7 +24824,7 @@
         <v>5.5260273972602736</v>
       </c>
       <c r="F128" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="G128" s="6" t="s">
@@ -24463,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="K128" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="L128" s="38" t="s">
@@ -24475,7 +24853,10 @@
       <c r="N128" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="O128" s="8"/>
+      <c r="O128">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="129" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A129" s="4">
@@ -24494,7 +24875,7 @@
         <v>5.5260273972602736</v>
       </c>
       <c r="F129" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="G129" s="6" t="s">
@@ -24511,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="K129" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="L129" s="38" t="s">
@@ -24523,7 +24904,10 @@
       <c r="N129" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="O129" s="8"/>
+      <c r="O129">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="130" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A130" s="4">
@@ -24542,7 +24926,7 @@
         <v>5.4876712328767123</v>
       </c>
       <c r="F130" s="24">
-        <f t="shared" ref="F130:F193" si="4">ROUNDUP(E130,0)</f>
+        <f t="shared" ref="F130:F193" si="6">ROUNDUP(E130,0)</f>
         <v>6</v>
       </c>
       <c r="G130" s="6" t="s">
@@ -24559,7 +24943,7 @@
         <v>0</v>
       </c>
       <c r="K130" s="25">
-        <f t="shared" ref="K130:K193" si="5">SUM(I130:J130)</f>
+        <f t="shared" ref="K130:K193" si="7">SUM(I130:J130)</f>
         <v>26</v>
       </c>
       <c r="L130" s="38" t="s">
@@ -24571,7 +24955,10 @@
       <c r="N130" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="O130" s="8"/>
+      <c r="O130">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="131" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A131" s="4">
@@ -24590,7 +24977,7 @@
         <v>5.4109589041095889</v>
       </c>
       <c r="F131" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="G131" s="6" t="s">
@@ -24607,7 +24994,7 @@
         <v>0</v>
       </c>
       <c r="K131" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="L131" s="38" t="s">
@@ -24619,7 +25006,10 @@
       <c r="N131" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="O131" s="8"/>
+      <c r="O131">
+        <f t="shared" ref="O131:Q194" ca="1" si="8">RANDBETWEEN(1,3)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="132" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A132" s="4">
@@ -24638,7 +25028,7 @@
         <v>5.4109589041095889</v>
       </c>
       <c r="F132" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="G132" s="6" t="s">
@@ -24655,7 +25045,7 @@
         <v>0</v>
       </c>
       <c r="K132" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="L132" s="38" t="s">
@@ -24667,7 +25057,10 @@
       <c r="N132" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="O132" s="8"/>
+      <c r="O132">
+        <f t="shared" ca="1" si="8"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="133" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A133" s="4">
@@ -24686,7 +25079,7 @@
         <v>5.3917808219178083</v>
       </c>
       <c r="F133" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="G133" s="6" t="s">
@@ -24703,7 +25096,7 @@
         <v>0</v>
       </c>
       <c r="K133" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="L133" s="38" t="s">
@@ -24715,7 +25108,10 @@
       <c r="N133" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="O133" s="8"/>
+      <c r="O133">
+        <f t="shared" ca="1" si="8"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="134" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A134" s="4">
@@ -24734,7 +25130,7 @@
         <v>5.3917808219178083</v>
       </c>
       <c r="F134" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="G134" s="6" t="s">
@@ -24751,7 +25147,7 @@
         <v>0</v>
       </c>
       <c r="K134" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="L134" s="38" t="s">
@@ -24763,7 +25159,10 @@
       <c r="N134" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="O134" s="8"/>
+      <c r="O134">
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="135" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A135" s="4">
@@ -24782,7 +25181,7 @@
         <v>5.3726027397260276</v>
       </c>
       <c r="F135" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="G135" s="6" t="s">
@@ -24799,7 +25198,7 @@
         <v>0</v>
       </c>
       <c r="K135" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="L135" s="38" t="s">
@@ -24811,7 +25210,10 @@
       <c r="N135" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="O135" s="8"/>
+      <c r="O135">
+        <f t="shared" ca="1" si="8"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="136" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A136" s="4">
@@ -24830,7 +25232,7 @@
         <v>5.3726027397260276</v>
       </c>
       <c r="F136" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="G136" s="6" t="s">
@@ -24847,7 +25249,7 @@
         <v>0</v>
       </c>
       <c r="K136" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="L136" s="38" t="s">
@@ -24859,7 +25261,10 @@
       <c r="N136" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="O136" s="8"/>
+      <c r="O136">
+        <f t="shared" ca="1" si="8"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="137" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A137" s="4">
@@ -24878,7 +25283,7 @@
         <v>5.3726027397260276</v>
       </c>
       <c r="F137" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="G137" s="6" t="s">
@@ -24895,7 +25300,7 @@
         <v>0</v>
       </c>
       <c r="K137" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="L137" s="38" t="s">
@@ -24907,7 +25312,10 @@
       <c r="N137" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="O137" s="8"/>
+      <c r="O137">
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="138" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A138" s="4">
@@ -24926,7 +25334,7 @@
         <v>5.3150684931506849</v>
       </c>
       <c r="F138" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="G138" s="6" t="s">
@@ -24943,7 +25351,7 @@
         <v>0</v>
       </c>
       <c r="K138" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="L138" s="38" t="s">
@@ -24955,7 +25363,10 @@
       <c r="N138" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="O138" s="8"/>
+      <c r="O138">
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="139" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A139" s="4">
@@ -24974,7 +25385,7 @@
         <v>5.2</v>
       </c>
       <c r="F139" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="G139" s="6" t="s">
@@ -24991,7 +25402,7 @@
         <v>0</v>
       </c>
       <c r="K139" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="L139" s="38" t="s">
@@ -25003,7 +25414,10 @@
       <c r="N139" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="O139" s="8"/>
+      <c r="O139">
+        <f t="shared" ca="1" si="8"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="140" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A140" s="4">
@@ -25022,7 +25436,7 @@
         <v>5.1808219178082195</v>
       </c>
       <c r="F140" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="G140" s="6" t="s">
@@ -25039,7 +25453,7 @@
         <v>0</v>
       </c>
       <c r="K140" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="L140" s="38" t="s">
@@ -25051,7 +25465,10 @@
       <c r="N140" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="O140" s="8"/>
+      <c r="O140">
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="141" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A141" s="4">
@@ -25070,7 +25487,7 @@
         <v>5.161643835616438</v>
       </c>
       <c r="F141" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="G141" s="6" t="s">
@@ -25087,7 +25504,7 @@
         <v>0</v>
       </c>
       <c r="K141" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="L141" s="38" t="s">
@@ -25099,7 +25516,10 @@
       <c r="N141" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="O141" s="8"/>
+      <c r="O141">
+        <f t="shared" ca="1" si="8"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="142" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A142" s="4">
@@ -25118,7 +25538,7 @@
         <v>5.1424657534246574</v>
       </c>
       <c r="F142" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="G142" s="6" t="s">
@@ -25135,7 +25555,7 @@
         <v>0</v>
       </c>
       <c r="K142" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="L142" s="38" t="s">
@@ -25147,7 +25567,10 @@
       <c r="N142" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="O142" s="8"/>
+      <c r="O142">
+        <f t="shared" ca="1" si="8"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="143" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A143" s="4">
@@ -25166,7 +25589,7 @@
         <v>5.1424657534246574</v>
       </c>
       <c r="F143" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="G143" s="6" t="s">
@@ -25183,7 +25606,7 @@
         <v>0</v>
       </c>
       <c r="K143" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="L143" s="38" t="s">
@@ -25195,7 +25618,10 @@
       <c r="N143" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="O143" s="8"/>
+      <c r="O143">
+        <f t="shared" ca="1" si="8"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="144" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A144" s="4">
@@ -25214,7 +25640,7 @@
         <v>5.1424657534246574</v>
       </c>
       <c r="F144" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="G144" s="6" t="s">
@@ -25231,7 +25657,7 @@
         <v>0</v>
       </c>
       <c r="K144" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="L144" s="38" t="s">
@@ -25243,7 +25669,10 @@
       <c r="N144" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="O144" s="8"/>
+      <c r="O144">
+        <f t="shared" ca="1" si="8"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="145" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A145" s="4">
@@ -25262,7 +25691,7 @@
         <v>5.1232876712328768</v>
       </c>
       <c r="F145" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="G145" s="6" t="s">
@@ -25279,7 +25708,7 @@
         <v>0</v>
       </c>
       <c r="K145" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="L145" s="38" t="s">
@@ -25291,7 +25720,10 @@
       <c r="N145" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="O145" s="8"/>
+      <c r="O145">
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="146" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A146" s="4">
@@ -25310,7 +25742,7 @@
         <v>5.1232876712328768</v>
       </c>
       <c r="F146" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="G146" s="6" t="s">
@@ -25327,7 +25759,7 @@
         <v>0</v>
       </c>
       <c r="K146" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="L146" s="38" t="s">
@@ -25339,7 +25771,10 @@
       <c r="N146" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="O146" s="8"/>
+      <c r="O146">
+        <f t="shared" ca="1" si="8"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="147" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A147" s="4">
@@ -25358,7 +25793,7 @@
         <v>5.0849315068493155</v>
       </c>
       <c r="F147" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="G147" s="6" t="s">
@@ -25375,7 +25810,7 @@
         <v>0</v>
       </c>
       <c r="K147" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="L147" s="38" t="s">
@@ -25387,7 +25822,10 @@
       <c r="N147" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="O147" s="8"/>
+      <c r="O147">
+        <f t="shared" ca="1" si="8"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="148" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A148" s="4">
@@ -25406,7 +25844,7 @@
         <v>5.0849315068493155</v>
       </c>
       <c r="F148" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="G148" s="6" t="s">
@@ -25423,7 +25861,7 @@
         <v>0</v>
       </c>
       <c r="K148" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="L148" s="38" t="s">
@@ -25435,7 +25873,10 @@
       <c r="N148" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="O148" s="8"/>
+      <c r="O148">
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="149" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A149" s="4">
@@ -25454,7 +25895,7 @@
         <v>5.0849315068493155</v>
       </c>
       <c r="F149" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="G149" s="6" t="s">
@@ -25471,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="K149" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="L149" s="38" t="s">
@@ -25483,7 +25924,10 @@
       <c r="N149" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="O149" s="8"/>
+      <c r="O149">
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="150" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A150" s="4">
@@ -25502,7 +25946,7 @@
         <v>5.0849315068493155</v>
       </c>
       <c r="F150" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="G150" s="6" t="s">
@@ -25519,7 +25963,7 @@
         <v>0</v>
       </c>
       <c r="K150" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="L150" s="38" t="s">
@@ -25531,7 +25975,10 @@
       <c r="N150" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="O150" s="8"/>
+      <c r="O150">
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="151" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A151" s="4">
@@ -25550,7 +25997,7 @@
         <v>5.0849315068493155</v>
       </c>
       <c r="F151" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="G151" s="6" t="s">
@@ -25567,7 +26014,7 @@
         <v>0</v>
       </c>
       <c r="K151" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="L151" s="38" t="s">
@@ -25579,7 +26026,10 @@
       <c r="N151" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="O151" s="8"/>
+      <c r="O151">
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="152" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A152" s="4">
@@ -25598,7 +26048,7 @@
         <v>5.0849315068493155</v>
       </c>
       <c r="F152" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="G152" s="6" t="s">
@@ -25615,7 +26065,7 @@
         <v>0</v>
       </c>
       <c r="K152" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="L152" s="38" t="s">
@@ -25627,7 +26077,10 @@
       <c r="N152" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="O152" s="8"/>
+      <c r="O152">
+        <f t="shared" ca="1" si="8"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="153" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A153" s="4">
@@ -25646,7 +26099,7 @@
         <v>5.065753424657534</v>
       </c>
       <c r="F153" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="G153" s="6" t="s">
@@ -25663,7 +26116,7 @@
         <v>0</v>
       </c>
       <c r="K153" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="L153" s="38" t="s">
@@ -25675,7 +26128,10 @@
       <c r="N153" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="O153" s="8"/>
+      <c r="O153">
+        <f t="shared" ca="1" si="8"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="154" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A154" s="4">
@@ -25694,7 +26150,7 @@
         <v>4.9890410958904106</v>
       </c>
       <c r="F154" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="G154" s="8" t="s">
@@ -25711,7 +26167,7 @@
         <v>0</v>
       </c>
       <c r="K154" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="L154" s="7">
@@ -25723,7 +26179,10 @@
       <c r="N154" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="O154" s="8"/>
+      <c r="O154">
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="155" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A155" s="4">
@@ -25742,7 +26201,7 @@
         <v>4.9890410958904106</v>
       </c>
       <c r="F155" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="G155" s="8" t="s">
@@ -25759,7 +26218,7 @@
         <v>0</v>
       </c>
       <c r="K155" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="L155" s="7">
@@ -25771,7 +26230,10 @@
       <c r="N155" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="O155" s="8"/>
+      <c r="O155">
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="156" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A156" s="4">
@@ -25790,7 +26252,7 @@
         <v>4.9890410958904106</v>
       </c>
       <c r="F156" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="G156" s="8" t="s">
@@ -25807,7 +26269,7 @@
         <v>0</v>
       </c>
       <c r="K156" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="L156" s="7">
@@ -25819,7 +26281,10 @@
       <c r="N156" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="O156" s="8"/>
+      <c r="O156">
+        <f t="shared" ca="1" si="8"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="157" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A157" s="4">
@@ -25838,7 +26303,7 @@
         <v>4.9698630136986299</v>
       </c>
       <c r="F157" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="G157" s="8" t="s">
@@ -25855,7 +26320,7 @@
         <v>0</v>
       </c>
       <c r="K157" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="L157" s="7">
@@ -25867,7 +26332,10 @@
       <c r="N157" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="O157" s="8"/>
+      <c r="O157">
+        <f t="shared" ca="1" si="8"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="158" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A158" s="4">
@@ -25886,7 +26354,7 @@
         <v>4.9698630136986299</v>
       </c>
       <c r="F158" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="G158" s="8" t="s">
@@ -25903,7 +26371,7 @@
         <v>0</v>
       </c>
       <c r="K158" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="L158" s="7">
@@ -25915,7 +26383,10 @@
       <c r="N158" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="O158" s="8"/>
+      <c r="O158">
+        <f t="shared" ca="1" si="8"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="159" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A159" s="4">
@@ -25934,7 +26405,7 @@
         <v>4.9698630136986299</v>
       </c>
       <c r="F159" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="G159" s="8" t="s">
@@ -25951,7 +26422,7 @@
         <v>0</v>
       </c>
       <c r="K159" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="L159" s="7">
@@ -25963,7 +26434,10 @@
       <c r="N159" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="O159" s="8"/>
+      <c r="O159">
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="160" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A160" s="4">
@@ -25982,7 +26456,7 @@
         <v>4.9698630136986299</v>
       </c>
       <c r="F160" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="G160" s="8" t="s">
@@ -25999,7 +26473,7 @@
         <v>0</v>
       </c>
       <c r="K160" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="L160" s="7">
@@ -26011,7 +26485,10 @@
       <c r="N160" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="O160" s="8"/>
+      <c r="O160">
+        <f t="shared" ca="1" si="8"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="161" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A161" s="4">
@@ -26030,7 +26507,7 @@
         <v>4.9698630136986299</v>
       </c>
       <c r="F161" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="G161" s="8" t="s">
@@ -26047,7 +26524,7 @@
         <v>0</v>
       </c>
       <c r="K161" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="L161" s="7">
@@ -26059,7 +26536,10 @@
       <c r="N161" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="O161" s="8"/>
+      <c r="O161">
+        <f t="shared" ca="1" si="8"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="162" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A162" s="4">
@@ -26078,7 +26558,7 @@
         <v>4.912328767123288</v>
       </c>
       <c r="F162" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="G162" s="8" t="s">
@@ -26095,7 +26575,7 @@
         <v>0</v>
       </c>
       <c r="K162" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="L162" s="7">
@@ -26107,7 +26587,10 @@
       <c r="N162" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="O162" s="8"/>
+      <c r="O162">
+        <f t="shared" ca="1" si="8"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="163" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A163" s="4">
@@ -26126,7 +26609,7 @@
         <v>4.912328767123288</v>
       </c>
       <c r="F163" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="G163" s="8" t="s">
@@ -26143,7 +26626,7 @@
         <v>0</v>
       </c>
       <c r="K163" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="L163" s="7">
@@ -26155,7 +26638,10 @@
       <c r="N163" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="O163" s="8"/>
+      <c r="O163">
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="164" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A164" s="4">
@@ -26174,7 +26660,7 @@
         <v>4.8739726027397259</v>
       </c>
       <c r="F164" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="G164" s="8" t="s">
@@ -26191,7 +26677,7 @@
         <v>0</v>
       </c>
       <c r="K164" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="L164" s="7">
@@ -26203,7 +26689,10 @@
       <c r="N164" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="O164" s="8"/>
+      <c r="O164">
+        <f t="shared" ca="1" si="8"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="165" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A165" s="4">
@@ -26222,7 +26711,7 @@
         <v>4.8739726027397259</v>
       </c>
       <c r="F165" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="G165" s="8" t="s">
@@ -26239,7 +26728,7 @@
         <v>0</v>
       </c>
       <c r="K165" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="L165" s="7">
@@ -26251,7 +26740,10 @@
       <c r="N165" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="O165" s="8"/>
+      <c r="O165">
+        <f t="shared" ca="1" si="8"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="166" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A166" s="4">
@@ -26270,7 +26762,7 @@
         <v>4.8739726027397259</v>
       </c>
       <c r="F166" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="G166" s="8" t="s">
@@ -26287,7 +26779,7 @@
         <v>0</v>
       </c>
       <c r="K166" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="L166" s="7">
@@ -26299,7 +26791,10 @@
       <c r="N166" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="O166" s="8"/>
+      <c r="O166">
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="167" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A167" s="4">
@@ -26318,7 +26813,7 @@
         <v>4.8547945205479452</v>
       </c>
       <c r="F167" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="G167" s="8" t="s">
@@ -26335,7 +26830,7 @@
         <v>0</v>
       </c>
       <c r="K167" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="L167" s="7">
@@ -26347,7 +26842,10 @@
       <c r="N167" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="O167" s="8"/>
+      <c r="O167">
+        <f t="shared" ca="1" si="8"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="168" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A168" s="4">
@@ -26366,7 +26864,7 @@
         <v>4.8547945205479452</v>
       </c>
       <c r="F168" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="G168" s="8" t="s">
@@ -26383,7 +26881,7 @@
         <v>0</v>
       </c>
       <c r="K168" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="L168" s="7">
@@ -26395,7 +26893,10 @@
       <c r="N168" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="O168" s="8"/>
+      <c r="O168">
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="169" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A169" s="4">
@@ -26414,7 +26915,7 @@
         <v>4.816438356164384</v>
       </c>
       <c r="F169" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="G169" s="8" t="s">
@@ -26431,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="K169" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="L169" s="7">
@@ -26443,7 +26944,10 @@
       <c r="N169" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="O169" s="8"/>
+      <c r="O169">
+        <f t="shared" ca="1" si="8"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="170" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A170" s="4">
@@ -26462,7 +26966,7 @@
         <v>4.816438356164384</v>
       </c>
       <c r="F170" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="G170" s="8" t="s">
@@ -26479,7 +26983,7 @@
         <v>0</v>
       </c>
       <c r="K170" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="L170" s="7">
@@ -26491,7 +26995,10 @@
       <c r="N170" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="O170" s="8"/>
+      <c r="O170">
+        <f t="shared" ca="1" si="8"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="171" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A171" s="4">
@@ -26510,7 +27017,7 @@
         <v>4.816438356164384</v>
       </c>
       <c r="F171" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="G171" s="8" t="s">
@@ -26527,7 +27034,7 @@
         <v>0</v>
       </c>
       <c r="K171" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="L171" s="7">
@@ -26539,7 +27046,10 @@
       <c r="N171" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="O171" s="8"/>
+      <c r="O171">
+        <f t="shared" ca="1" si="8"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="172" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A172" s="4">
@@ -26558,7 +27068,7 @@
         <v>4.7972602739726025</v>
       </c>
       <c r="F172" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="G172" s="8" t="s">
@@ -26575,7 +27085,7 @@
         <v>0</v>
       </c>
       <c r="K172" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="L172" s="7">
@@ -26587,7 +27097,10 @@
       <c r="N172" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="O172" s="8"/>
+      <c r="O172">
+        <f t="shared" ca="1" si="8"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="173" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A173" s="4">
@@ -26606,7 +27119,7 @@
         <v>4.7972602739726025</v>
       </c>
       <c r="F173" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="G173" s="8" t="s">
@@ -26623,7 +27136,7 @@
         <v>0</v>
       </c>
       <c r="K173" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="L173" s="7">
@@ -26635,7 +27148,10 @@
       <c r="N173" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="O173" s="8"/>
+      <c r="O173">
+        <f t="shared" ca="1" si="8"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="174" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A174" s="4">
@@ -26654,7 +27170,7 @@
         <v>4.7780821917808218</v>
       </c>
       <c r="F174" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="G174" s="34" t="s">
@@ -26671,7 +27187,7 @@
         <v>0</v>
       </c>
       <c r="K174" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="L174" s="43">
@@ -26683,7 +27199,10 @@
       <c r="N174" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="O174" s="8"/>
+      <c r="O174">
+        <f t="shared" ca="1" si="8"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="175" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A175" s="4">
@@ -26702,7 +27221,7 @@
         <v>4.7013698630136984</v>
       </c>
       <c r="F175" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="G175" s="34" t="s">
@@ -26719,7 +27238,7 @@
         <v>0</v>
       </c>
       <c r="K175" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="L175" s="43">
@@ -26731,7 +27250,10 @@
       <c r="N175" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="O175" s="8"/>
+      <c r="O175">
+        <f t="shared" ca="1" si="8"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="176" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A176" s="4">
@@ -26750,7 +27272,7 @@
         <v>4.6630136986301371</v>
       </c>
       <c r="F176" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="G176" s="8" t="s">
@@ -26767,7 +27289,7 @@
         <v>0</v>
       </c>
       <c r="K176" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="L176" s="7">
@@ -26779,7 +27301,10 @@
       <c r="N176" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="O176" s="8"/>
+      <c r="O176">
+        <f t="shared" ca="1" si="8"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="177" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A177" s="4">
@@ -26798,7 +27323,7 @@
         <v>4.6630136986301371</v>
       </c>
       <c r="F177" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="G177" s="8" t="s">
@@ -26815,7 +27340,7 @@
         <v>0</v>
       </c>
       <c r="K177" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="L177" s="7">
@@ -26827,7 +27352,10 @@
       <c r="N177" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="O177" s="8"/>
+      <c r="O177">
+        <f t="shared" ca="1" si="8"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="178" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A178" s="4">
@@ -26846,7 +27374,7 @@
         <v>4.6630136986301371</v>
       </c>
       <c r="F178" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="G178" s="8" t="s">
@@ -26863,7 +27391,7 @@
         <v>0</v>
       </c>
       <c r="K178" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="L178" s="7">
@@ -26875,7 +27403,10 @@
       <c r="N178" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="O178" s="8"/>
+      <c r="O178">
+        <f t="shared" ca="1" si="8"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="179" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A179" s="4">
@@ -26894,7 +27425,7 @@
         <v>4.6630136986301371</v>
       </c>
       <c r="F179" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="G179" s="8" t="s">
@@ -26911,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="K179" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="L179" s="7">
@@ -26923,7 +27454,10 @@
       <c r="N179" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="O179" s="8"/>
+      <c r="O179">
+        <f t="shared" ca="1" si="8"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="180" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A180" s="4">
@@ -26942,7 +27476,7 @@
         <v>4.6630136986301371</v>
       </c>
       <c r="F180" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="G180" s="8" t="s">
@@ -26959,7 +27493,7 @@
         <v>0</v>
       </c>
       <c r="K180" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="L180" s="7">
@@ -26971,7 +27505,10 @@
       <c r="N180" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="O180" s="8"/>
+      <c r="O180">
+        <f t="shared" ca="1" si="8"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="181" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A181" s="4">
@@ -26990,7 +27527,7 @@
         <v>4.6438356164383565</v>
       </c>
       <c r="F181" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="G181" s="8" t="s">
@@ -27007,7 +27544,7 @@
         <v>0</v>
       </c>
       <c r="K181" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="L181" s="7">
@@ -27019,7 +27556,10 @@
       <c r="N181" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="O181" s="8"/>
+      <c r="O181">
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="182" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A182" s="4">
@@ -27038,7 +27578,7 @@
         <v>4.6438356164383565</v>
       </c>
       <c r="F182" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="G182" s="8" t="s">
@@ -27055,7 +27595,7 @@
         <v>0</v>
       </c>
       <c r="K182" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="L182" s="7">
@@ -27067,7 +27607,10 @@
       <c r="N182" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="O182" s="8"/>
+      <c r="O182">
+        <f t="shared" ca="1" si="8"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="183" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A183" s="4">
@@ -27086,7 +27629,7 @@
         <v>4.624657534246575</v>
       </c>
       <c r="F183" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="G183" s="8" t="s">
@@ -27103,7 +27646,7 @@
         <v>0</v>
       </c>
       <c r="K183" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="L183" s="7">
@@ -27115,7 +27658,10 @@
       <c r="N183" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="O183" s="8"/>
+      <c r="O183">
+        <f t="shared" ca="1" si="8"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="184" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A184" s="4">
@@ -27134,7 +27680,7 @@
         <v>4.602739726027397</v>
       </c>
       <c r="F184" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="G184" s="8" t="s">
@@ -27151,7 +27697,7 @@
         <v>0</v>
       </c>
       <c r="K184" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="L184" s="7">
@@ -27163,7 +27709,10 @@
       <c r="N184" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="O184" s="8"/>
+      <c r="O184">
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="185" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A185" s="4">
@@ -27182,7 +27731,7 @@
         <v>4.5287671232876709</v>
       </c>
       <c r="F185" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="G185" s="8" t="s">
@@ -27199,7 +27748,7 @@
         <v>0</v>
       </c>
       <c r="K185" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="L185" s="7">
@@ -27211,7 +27760,10 @@
       <c r="N185" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="O185" s="8"/>
+      <c r="O185">
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="186" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A186" s="4">
@@ -27230,7 +27782,7 @@
         <v>4.4712328767123291</v>
       </c>
       <c r="F186" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="G186" s="8" t="s">
@@ -27247,7 +27799,7 @@
         <v>0</v>
       </c>
       <c r="K186" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="L186" s="7">
@@ -27259,7 +27811,10 @@
       <c r="N186" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="O186" s="8"/>
+      <c r="O186">
+        <f t="shared" ca="1" si="8"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="187" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A187" s="4">
@@ -27278,7 +27833,7 @@
         <v>4.4712328767123291</v>
       </c>
       <c r="F187" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="G187" s="8" t="s">
@@ -27295,7 +27850,7 @@
         <v>0</v>
       </c>
       <c r="K187" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="L187" s="7">
@@ -27307,7 +27862,10 @@
       <c r="N187" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="O187" s="8"/>
+      <c r="O187">
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="188" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A188" s="4">
@@ -27326,7 +27884,7 @@
         <v>4.4712328767123291</v>
       </c>
       <c r="F188" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="G188" s="8" t="s">
@@ -27343,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="K188" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="L188" s="7">
@@ -27355,7 +27913,10 @@
       <c r="N188" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="O188" s="8"/>
+      <c r="O188">
+        <f t="shared" ca="1" si="8"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="189" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A189" s="4">
@@ -27374,7 +27935,7 @@
         <v>4.4328767123287669</v>
       </c>
       <c r="F189" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="G189" s="8" t="s">
@@ -27391,7 +27952,7 @@
         <v>0</v>
       </c>
       <c r="K189" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="L189" s="7">
@@ -27403,7 +27964,10 @@
       <c r="N189" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="O189" s="8"/>
+      <c r="O189">
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="190" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A190" s="4">
@@ -27422,7 +27986,7 @@
         <v>4.3342465753424655</v>
       </c>
       <c r="F190" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="G190" s="8" t="s">
@@ -27439,7 +28003,7 @@
         <v>0</v>
       </c>
       <c r="K190" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="L190" s="7">
@@ -27451,7 +28015,10 @@
       <c r="N190" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="O190" s="8"/>
+      <c r="O190">
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="191" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A191" s="4">
@@ -27470,7 +28037,7 @@
         <v>4.3150684931506849</v>
       </c>
       <c r="F191" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="G191" s="8" t="s">
@@ -27487,7 +28054,7 @@
         <v>0</v>
       </c>
       <c r="K191" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="L191" s="7">
@@ -27499,7 +28066,10 @@
       <c r="N191" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="O191" s="8"/>
+      <c r="O191">
+        <f t="shared" ca="1" si="8"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="192" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A192" s="4">
@@ -27518,7 +28088,7 @@
         <v>4.2986301369863016</v>
       </c>
       <c r="F192" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="G192" s="8" t="s">
@@ -27535,7 +28105,7 @@
         <v>0</v>
       </c>
       <c r="K192" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="L192" s="7">
@@ -27547,7 +28117,10 @@
       <c r="N192" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="O192" s="8"/>
+      <c r="O192">
+        <f t="shared" ca="1" si="8"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="193" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A193" s="4">
@@ -27566,7 +28139,7 @@
         <v>4.279452054794521</v>
       </c>
       <c r="F193" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="G193" s="8" t="s">
@@ -27583,7 +28156,7 @@
         <v>0</v>
       </c>
       <c r="K193" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="L193" s="7">
@@ -27595,7 +28168,10 @@
       <c r="N193" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="O193" s="8"/>
+      <c r="O193">
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="194" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A194" s="4">
@@ -27614,7 +28190,7 @@
         <v>4.279452054794521</v>
       </c>
       <c r="F194" s="24">
-        <f t="shared" ref="F194:F245" si="6">ROUNDUP(E194,0)</f>
+        <f t="shared" ref="F194:F245" si="9">ROUNDUP(E194,0)</f>
         <v>5</v>
       </c>
       <c r="G194" s="16" t="s">
@@ -27631,7 +28207,7 @@
         <v>0</v>
       </c>
       <c r="K194" s="25">
-        <f t="shared" ref="K194:K257" si="7">SUM(I194:J194)</f>
+        <f t="shared" ref="K194:K257" si="10">SUM(I194:J194)</f>
         <v>26</v>
       </c>
       <c r="L194" s="26">
@@ -27643,7 +28219,10 @@
       <c r="N194" s="27" t="s">
         <v>276</v>
       </c>
-      <c r="O194" s="8"/>
+      <c r="O194">
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="195" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A195" s="4">
@@ -27662,7 +28241,7 @@
         <v>4.279452054794521</v>
       </c>
       <c r="F195" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="G195" s="6" t="s">
@@ -27679,7 +28258,7 @@
         <v>0</v>
       </c>
       <c r="K195" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>26</v>
       </c>
       <c r="L195" s="38" t="s">
@@ -27691,7 +28270,10 @@
       <c r="N195" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="O195" s="8"/>
+      <c r="O195">
+        <f t="shared" ref="O195:Q258" ca="1" si="11">RANDBETWEEN(1,3)</f>
+        <v>3</v>
+      </c>
     </row>
     <row r="196" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A196" s="4">
@@ -27710,7 +28292,7 @@
         <v>4.2602739726027394</v>
       </c>
       <c r="F196" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="G196" s="8" t="s">
@@ -27727,7 +28309,7 @@
         <v>0</v>
       </c>
       <c r="K196" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>26</v>
       </c>
       <c r="L196" s="7">
@@ -27739,7 +28321,10 @@
       <c r="N196" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="O196" s="8"/>
+      <c r="O196">
+        <f t="shared" ca="1" si="11"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="197" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A197" s="4">
@@ -27758,7 +28343,7 @@
         <v>4.2191780821917808</v>
       </c>
       <c r="F197" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="G197" s="8" t="s">
@@ -27775,7 +28360,7 @@
         <v>0</v>
       </c>
       <c r="K197" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>26</v>
       </c>
       <c r="L197" s="7">
@@ -27787,7 +28372,10 @@
       <c r="N197" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="O197" s="8"/>
+      <c r="O197">
+        <f t="shared" ca="1" si="11"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="198" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A198" s="4">
@@ -27806,7 +28394,7 @@
         <v>4.2027397260273975</v>
       </c>
       <c r="F198" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="G198" s="8" t="s">
@@ -27823,7 +28411,7 @@
         <v>0</v>
       </c>
       <c r="K198" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>26</v>
       </c>
       <c r="L198" s="7">
@@ -27835,7 +28423,10 @@
       <c r="N198" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="O198" s="8"/>
+      <c r="O198">
+        <f t="shared" ca="1" si="11"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="199" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A199" s="4">
@@ -27854,7 +28445,7 @@
         <v>4.2027397260273975</v>
       </c>
       <c r="F199" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="G199" s="8" t="s">
@@ -27871,7 +28462,7 @@
         <v>0</v>
       </c>
       <c r="K199" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>26</v>
       </c>
       <c r="L199" s="7">
@@ -27883,7 +28474,10 @@
       <c r="N199" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="O199" s="8"/>
+      <c r="O199">
+        <f t="shared" ca="1" si="11"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="200" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A200" s="4">
@@ -27902,7 +28496,7 @@
         <v>4.2027397260273975</v>
       </c>
       <c r="F200" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="G200" s="8" t="s">
@@ -27919,7 +28513,7 @@
         <v>0</v>
       </c>
       <c r="K200" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>26</v>
       </c>
       <c r="L200" s="7">
@@ -27931,7 +28525,10 @@
       <c r="N200" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="O200" s="8"/>
+      <c r="O200">
+        <f t="shared" ca="1" si="11"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="201" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A201" s="4">
@@ -27950,7 +28547,7 @@
         <v>4.1452054794520548</v>
       </c>
       <c r="F201" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="G201" s="8" t="s">
@@ -27967,7 +28564,7 @@
         <v>0</v>
       </c>
       <c r="K201" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>26</v>
       </c>
       <c r="L201" s="7">
@@ -27979,7 +28576,10 @@
       <c r="N201" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="O201" s="8"/>
+      <c r="O201">
+        <f t="shared" ca="1" si="11"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="202" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A202" s="4">
@@ -27998,7 +28598,7 @@
         <v>4.1452054794520548</v>
       </c>
       <c r="F202" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="G202" s="8" t="s">
@@ -28015,7 +28615,7 @@
         <v>0</v>
       </c>
       <c r="K202" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>26</v>
       </c>
       <c r="L202" s="7">
@@ -28027,7 +28627,10 @@
       <c r="N202" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="O202" s="8"/>
+      <c r="O202">
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="203" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A203" s="4">
@@ -28046,7 +28649,7 @@
         <v>4.1260273972602741</v>
       </c>
       <c r="F203" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="G203" s="8" t="s">
@@ -28063,7 +28666,7 @@
         <v>0</v>
       </c>
       <c r="K203" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>26</v>
       </c>
       <c r="L203" s="7">
@@ -28075,7 +28678,10 @@
       <c r="N203" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="O203" s="8"/>
+      <c r="O203">
+        <f t="shared" ca="1" si="11"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="204" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A204" s="4">
@@ -28094,7 +28700,7 @@
         <v>4.087671232876712</v>
       </c>
       <c r="F204" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="G204" s="8" t="s">
@@ -28111,7 +28717,7 @@
         <v>0</v>
       </c>
       <c r="K204" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>26</v>
       </c>
       <c r="L204" s="7">
@@ -28123,7 +28729,10 @@
       <c r="N204" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="O204" s="8"/>
+      <c r="O204">
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="205" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A205" s="4">
@@ -28142,7 +28751,7 @@
         <v>4.0849315068493155</v>
       </c>
       <c r="F205" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="G205" s="8" t="s">
@@ -28159,7 +28768,7 @@
         <v>0</v>
       </c>
       <c r="K205" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>26</v>
       </c>
       <c r="L205" s="7">
@@ -28171,7 +28780,10 @@
       <c r="N205" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="O205" s="8"/>
+      <c r="O205">
+        <f t="shared" ca="1" si="11"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="206" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A206" s="4">
@@ -28190,7 +28802,7 @@
         <v>4.0684931506849313</v>
       </c>
       <c r="F206" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="G206" s="8" t="s">
@@ -28207,7 +28819,7 @@
         <v>0</v>
       </c>
       <c r="K206" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>26</v>
       </c>
       <c r="L206" s="7">
@@ -28219,7 +28831,10 @@
       <c r="N206" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="O206" s="8"/>
+      <c r="O206">
+        <f t="shared" ca="1" si="11"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="207" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A207" s="4">
@@ -28238,7 +28853,7 @@
         <v>4.0684931506849313</v>
       </c>
       <c r="F207" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="G207" s="8" t="s">
@@ -28255,7 +28870,7 @@
         <v>0</v>
       </c>
       <c r="K207" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>26</v>
       </c>
       <c r="L207" s="7">
@@ -28267,7 +28882,10 @@
       <c r="N207" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="O207" s="8"/>
+      <c r="O207">
+        <f t="shared" ca="1" si="11"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="208" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A208" s="4">
@@ -28286,7 +28904,7 @@
         <v>4.0684931506849313</v>
       </c>
       <c r="F208" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="G208" s="8" t="s">
@@ -28303,7 +28921,7 @@
         <v>0</v>
       </c>
       <c r="K208" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>26</v>
       </c>
       <c r="L208" s="7">
@@ -28315,7 +28933,10 @@
       <c r="N208" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="O208" s="8"/>
+      <c r="O208">
+        <f t="shared" ca="1" si="11"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="209" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A209" s="4">
@@ -28334,7 +28955,7 @@
         <v>3.9917808219178084</v>
       </c>
       <c r="F209" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="G209" s="8" t="s">
@@ -28351,7 +28972,7 @@
         <v>0</v>
       </c>
       <c r="K209" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>12</v>
       </c>
       <c r="L209" s="7">
@@ -28363,7 +28984,10 @@
       <c r="N209" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="O209" s="8"/>
+      <c r="O209">
+        <f t="shared" ca="1" si="11"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="210" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A210" s="4">
@@ -28382,7 +29006,7 @@
         <v>3.9917808219178084</v>
       </c>
       <c r="F210" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="G210" s="8" t="s">
@@ -28399,7 +29023,7 @@
         <v>0</v>
       </c>
       <c r="K210" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>12</v>
       </c>
       <c r="L210" s="7">
@@ -28411,7 +29035,10 @@
       <c r="N210" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="O210" s="8"/>
+      <c r="O210">
+        <f t="shared" ca="1" si="11"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="211" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A211" s="4">
@@ -28430,7 +29057,7 @@
         <v>3.9917808219178084</v>
       </c>
       <c r="F211" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="G211" s="8" t="s">
@@ -28447,7 +29074,7 @@
         <v>0</v>
       </c>
       <c r="K211" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>12</v>
       </c>
       <c r="L211" s="7">
@@ -28459,7 +29086,10 @@
       <c r="N211" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="O211" s="8"/>
+      <c r="O211">
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="212" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A212" s="4">
@@ -28478,7 +29108,7 @@
         <v>3.9917808219178084</v>
       </c>
       <c r="F212" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="G212" s="8" t="s">
@@ -28495,7 +29125,7 @@
         <v>0</v>
       </c>
       <c r="K212" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>12</v>
       </c>
       <c r="L212" s="7">
@@ -28507,7 +29137,10 @@
       <c r="N212" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="O212" s="8"/>
+      <c r="O212">
+        <f t="shared" ca="1" si="11"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="213" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A213" s="4">
@@ -28526,7 +29159,7 @@
         <v>3.9917808219178084</v>
       </c>
       <c r="F213" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="G213" s="8" t="s">
@@ -28543,7 +29176,7 @@
         <v>0</v>
       </c>
       <c r="K213" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>12</v>
       </c>
       <c r="L213" s="7">
@@ -28555,7 +29188,10 @@
       <c r="N213" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="O213" s="8"/>
+      <c r="O213">
+        <f t="shared" ca="1" si="11"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="214" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A214" s="4">
@@ -28574,7 +29210,7 @@
         <v>3.9726027397260273</v>
       </c>
       <c r="F214" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="G214" s="8" t="s">
@@ -28591,7 +29227,7 @@
         <v>0</v>
       </c>
       <c r="K214" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>12</v>
       </c>
       <c r="L214" s="7">
@@ -28603,7 +29239,10 @@
       <c r="N214" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="O214" s="8"/>
+      <c r="O214">
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="215" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A215" s="4">
@@ -28622,7 +29261,7 @@
         <v>3.9726027397260273</v>
       </c>
       <c r="F215" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="G215" s="8" t="s">
@@ -28639,7 +29278,7 @@
         <v>0</v>
       </c>
       <c r="K215" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>12</v>
       </c>
       <c r="L215" s="7">
@@ -28651,7 +29290,10 @@
       <c r="N215" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="O215" s="8"/>
+      <c r="O215">
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="216" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A216" s="4">
@@ -28670,7 +29312,7 @@
         <v>3.8958904109589043</v>
       </c>
       <c r="F216" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="G216" s="8" t="s">
@@ -28687,7 +29329,7 @@
         <v>0</v>
       </c>
       <c r="K216" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>12</v>
       </c>
       <c r="L216" s="7">
@@ -28699,7 +29341,10 @@
       <c r="N216" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="O216" s="8"/>
+      <c r="O216">
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="217" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A217" s="4">
@@ -28718,7 +29363,7 @@
         <v>3.8958904109589043</v>
       </c>
       <c r="F217" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="G217" s="8" t="s">
@@ -28735,7 +29380,7 @@
         <v>0</v>
       </c>
       <c r="K217" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>12</v>
       </c>
       <c r="L217" s="7">
@@ -28747,7 +29392,10 @@
       <c r="N217" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="O217" s="8"/>
+      <c r="O217">
+        <f t="shared" ca="1" si="11"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="218" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A218" s="4">
@@ -28766,7 +29414,7 @@
         <v>3.8958904109589043</v>
       </c>
       <c r="F218" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="G218" s="8" t="s">
@@ -28783,7 +29431,7 @@
         <v>0</v>
       </c>
       <c r="K218" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>12</v>
       </c>
       <c r="L218" s="7">
@@ -28795,7 +29443,10 @@
       <c r="N218" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="O218" s="8"/>
+      <c r="O218">
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="219" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A219" s="4">
@@ -28814,7 +29465,7 @@
         <v>3.8575342465753426</v>
       </c>
       <c r="F219" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="G219" s="8" t="s">
@@ -28831,7 +29482,7 @@
         <v>0</v>
       </c>
       <c r="K219" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>12</v>
       </c>
       <c r="L219" s="7">
@@ -28843,7 +29494,10 @@
       <c r="N219" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="O219" s="8"/>
+      <c r="O219">
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="220" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A220" s="4">
@@ -28862,7 +29516,7 @@
         <v>3.8383561643835615</v>
       </c>
       <c r="F220" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="G220" s="8" t="s">
@@ -28879,7 +29533,7 @@
         <v>0</v>
       </c>
       <c r="K220" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>12</v>
       </c>
       <c r="L220" s="7">
@@ -28891,7 +29545,10 @@
       <c r="N220" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="O220" s="8"/>
+      <c r="O220">
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="221" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A221" s="4">
@@ -28910,7 +29567,7 @@
         <v>3.8383561643835615</v>
       </c>
       <c r="F221" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="G221" s="8" t="s">
@@ -28927,7 +29584,7 @@
         <v>0</v>
       </c>
       <c r="K221" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>12</v>
       </c>
       <c r="L221" s="7">
@@ -28939,7 +29596,10 @@
       <c r="N221" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="O221" s="8"/>
+      <c r="O221">
+        <f t="shared" ca="1" si="11"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="222" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A222" s="4">
@@ -28958,7 +29618,7 @@
         <v>3.8191780821917809</v>
       </c>
       <c r="F222" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="G222" s="8" t="s">
@@ -28975,7 +29635,7 @@
         <v>0</v>
       </c>
       <c r="K222" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>12</v>
       </c>
       <c r="L222" s="7">
@@ -28987,7 +29647,10 @@
       <c r="N222" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="O222" s="8"/>
+      <c r="O222">
+        <f t="shared" ca="1" si="11"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="223" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A223" s="4">
@@ -29006,7 +29669,7 @@
         <v>3.5890410958904111</v>
       </c>
       <c r="F223" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="G223" s="8" t="s">
@@ -29023,7 +29686,7 @@
         <v>0</v>
       </c>
       <c r="K223" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>12</v>
       </c>
       <c r="L223" s="7">
@@ -29035,7 +29698,10 @@
       <c r="N223" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="O223" s="8"/>
+      <c r="O223">
+        <f t="shared" ca="1" si="11"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="224" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A224" s="4">
@@ -29054,7 +29720,7 @@
         <v>3.493150684931507</v>
       </c>
       <c r="F224" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="G224" s="8" t="s">
@@ -29071,7 +29737,7 @@
         <v>0</v>
       </c>
       <c r="K224" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>12</v>
       </c>
       <c r="L224" s="7">
@@ -29083,7 +29749,10 @@
       <c r="N224" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="O224" s="8"/>
+      <c r="O224">
+        <f t="shared" ca="1" si="11"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="225" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A225" s="4">
@@ -29102,7 +29771,7 @@
         <v>3.493150684931507</v>
       </c>
       <c r="F225" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="G225" s="8" t="s">
@@ -29119,7 +29788,7 @@
         <v>0</v>
       </c>
       <c r="K225" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>12</v>
       </c>
       <c r="L225" s="7">
@@ -29131,7 +29800,10 @@
       <c r="N225" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="O225" s="8"/>
+      <c r="O225">
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="226" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A226" s="4">
@@ -29150,7 +29822,7 @@
         <v>3.4547945205479453</v>
       </c>
       <c r="F226" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="G226" s="8" t="s">
@@ -29167,7 +29839,7 @@
         <v>0</v>
       </c>
       <c r="K226" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>12</v>
       </c>
       <c r="L226" s="7">
@@ -29179,7 +29851,10 @@
       <c r="N226" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="O226" s="8"/>
+      <c r="O226">
+        <f t="shared" ca="1" si="11"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="227" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A227" s="4">
@@ -29198,7 +29873,7 @@
         <v>3.3972602739726026</v>
       </c>
       <c r="F227" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="G227" s="8" t="s">
@@ -29215,7 +29890,7 @@
         <v>0</v>
       </c>
       <c r="K227" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>12</v>
       </c>
       <c r="L227" s="7">
@@ -29227,7 +29902,10 @@
       <c r="N227" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="O227" s="8"/>
+      <c r="O227">
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="228" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A228" s="4">
@@ -29246,7 +29924,7 @@
         <v>3.3972602739726026</v>
       </c>
       <c r="F228" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="G228" s="8" t="s">
@@ -29263,7 +29941,7 @@
         <v>0</v>
       </c>
       <c r="K228" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>12</v>
       </c>
       <c r="L228" s="7">
@@ -29275,7 +29953,10 @@
       <c r="N228" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="O228" s="8"/>
+      <c r="O228">
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="229" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A229" s="4">
@@ -29294,7 +29975,7 @@
         <v>3.3397260273972602</v>
       </c>
       <c r="F229" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="G229" s="8" t="s">
@@ -29311,7 +29992,7 @@
         <v>0</v>
       </c>
       <c r="K229" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>12</v>
       </c>
       <c r="L229" s="7">
@@ -29323,7 +30004,10 @@
       <c r="N229" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="O229" s="8"/>
+      <c r="O229">
+        <f t="shared" ca="1" si="11"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="230" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A230" s="4">
@@ -29342,7 +30026,7 @@
         <v>3.2054794520547945</v>
       </c>
       <c r="F230" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="G230" s="8" t="s">
@@ -29359,7 +30043,7 @@
         <v>0</v>
       </c>
       <c r="K230" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>12</v>
       </c>
       <c r="L230" s="7">
@@ -29371,7 +30055,10 @@
       <c r="N230" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="O230" s="8"/>
+      <c r="O230">
+        <f t="shared" ca="1" si="11"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="231" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A231" s="4">
@@ -29390,7 +30077,7 @@
         <v>3.1479452054794521</v>
       </c>
       <c r="F231" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="G231" s="8" t="s">
@@ -29407,7 +30094,7 @@
         <v>0</v>
       </c>
       <c r="K231" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>12</v>
       </c>
       <c r="L231" s="7">
@@ -29419,7 +30106,10 @@
       <c r="N231" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="O231" s="8"/>
+      <c r="O231">
+        <f t="shared" ca="1" si="11"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="232" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A232" s="4">
@@ -29438,7 +30128,7 @@
         <v>3.1479452054794521</v>
       </c>
       <c r="F232" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="G232" s="8" t="s">
@@ -29455,7 +30145,7 @@
         <v>0</v>
       </c>
       <c r="K232" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>12</v>
       </c>
       <c r="L232" s="7">
@@ -29467,7 +30157,10 @@
       <c r="N232" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="O232" s="8"/>
+      <c r="O232">
+        <f t="shared" ca="1" si="11"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="233" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A233" s="4">
@@ -29486,7 +30179,7 @@
         <v>2.9753424657534246</v>
       </c>
       <c r="F233" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="G233" s="8" t="s">
@@ -29503,7 +30196,7 @@
         <v>0</v>
       </c>
       <c r="K233" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>12</v>
       </c>
       <c r="L233" s="7">
@@ -29515,7 +30208,10 @@
       <c r="N233" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="O233" s="8"/>
+      <c r="O233">
+        <f t="shared" ca="1" si="11"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="234" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A234" s="4">
@@ -29534,7 +30230,7 @@
         <v>2.0547945205479454</v>
       </c>
       <c r="F234" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="G234" s="8" t="s">
@@ -29551,7 +30247,7 @@
         <v>0</v>
       </c>
       <c r="K234" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>12</v>
       </c>
       <c r="L234" s="7">
@@ -29563,7 +30259,10 @@
       <c r="N234" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="O234" s="8"/>
+      <c r="O234">
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="235" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A235" s="4">
@@ -29582,7 +30281,7 @@
         <v>2.0547945205479454</v>
       </c>
       <c r="F235" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="G235" s="8" t="s">
@@ -29599,7 +30298,7 @@
         <v>0</v>
       </c>
       <c r="K235" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>12</v>
       </c>
       <c r="L235" s="7">
@@ -29611,7 +30310,10 @@
       <c r="N235" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="O235" s="8"/>
+      <c r="O235">
+        <f t="shared" ca="1" si="11"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="236" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A236" s="4">
@@ -29630,7 +30332,7 @@
         <v>1.8630136986301369</v>
       </c>
       <c r="F236" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="G236" s="8" t="s">
@@ -29647,7 +30349,7 @@
         <v>0</v>
       </c>
       <c r="K236" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>12</v>
       </c>
       <c r="L236" s="7">
@@ -29659,7 +30361,10 @@
       <c r="N236" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="O236" s="8"/>
+      <c r="O236">
+        <f t="shared" ca="1" si="11"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="237" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A237" s="4">
@@ -29678,7 +30383,7 @@
         <v>1.8246575342465754</v>
       </c>
       <c r="F237" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="G237" s="8" t="s">
@@ -29695,7 +30400,7 @@
         <v>0</v>
       </c>
       <c r="K237" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>12</v>
       </c>
       <c r="L237" s="7">
@@ -29707,7 +30412,10 @@
       <c r="N237" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="O237" s="8"/>
+      <c r="O237">
+        <f t="shared" ca="1" si="11"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="238" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A238" s="4">
@@ -29726,7 +30434,7 @@
         <v>1.4602739726027398</v>
       </c>
       <c r="F238" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="G238" s="8" t="s">
@@ -29743,7 +30451,7 @@
         <v>0</v>
       </c>
       <c r="K238" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>12</v>
       </c>
       <c r="L238" s="7">
@@ -29755,7 +30463,10 @@
       <c r="N238" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="O238" s="8"/>
+      <c r="O238">
+        <f t="shared" ca="1" si="11"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="239" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A239" s="4">
@@ -29774,7 +30485,7 @@
         <v>1.441095890410959</v>
       </c>
       <c r="F239" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="G239" s="8" t="s">
@@ -29791,7 +30502,7 @@
         <v>0</v>
       </c>
       <c r="K239" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>12</v>
       </c>
       <c r="L239" s="7">
@@ -29803,7 +30514,10 @@
       <c r="N239" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="O239" s="8"/>
+      <c r="O239">
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="240" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A240" s="4">
@@ -29822,7 +30536,7 @@
         <v>1.3643835616438356</v>
       </c>
       <c r="F240" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="G240" s="8" t="s">
@@ -29839,7 +30553,7 @@
         <v>0</v>
       </c>
       <c r="K240" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>12</v>
       </c>
       <c r="L240" s="7">
@@ -29851,7 +30565,10 @@
       <c r="N240" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="O240" s="8"/>
+      <c r="O240">
+        <f t="shared" ca="1" si="11"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="241" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A241" s="4">
@@ -29870,7 +30587,7 @@
         <v>1.3232876712328767</v>
       </c>
       <c r="F241" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="G241" s="8" t="s">
@@ -29887,7 +30604,7 @@
         <v>0</v>
       </c>
       <c r="K241" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>12</v>
       </c>
       <c r="L241" s="7">
@@ -29899,7 +30616,10 @@
       <c r="N241" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="O241" s="8"/>
+      <c r="O241">
+        <f t="shared" ca="1" si="11"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="242" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A242" s="4">
@@ -29918,7 +30638,7 @@
         <v>1.3068493150684932</v>
       </c>
       <c r="F242" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="G242" s="8" t="s">
@@ -29935,7 +30655,7 @@
         <v>0</v>
       </c>
       <c r="K242" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>12</v>
       </c>
       <c r="L242" s="7">
@@ -29947,7 +30667,10 @@
       <c r="N242" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="O242" s="8"/>
+      <c r="O242">
+        <f t="shared" ca="1" si="11"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="243" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A243" s="4">
@@ -29966,7 +30689,7 @@
         <v>1.1150684931506849</v>
       </c>
       <c r="F243" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="G243" s="8" t="s">
@@ -29983,7 +30706,7 @@
         <v>0</v>
       </c>
       <c r="K243" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>12</v>
       </c>
       <c r="L243" s="7">
@@ -29995,7 +30718,10 @@
       <c r="N243" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="O243" s="8"/>
+      <c r="O243">
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="244" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A244" s="4">
@@ -30014,7 +30740,7 @@
         <v>1.095890410958904</v>
       </c>
       <c r="F244" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="G244" s="8" t="s">
@@ -30031,7 +30757,7 @@
         <v>0</v>
       </c>
       <c r="K244" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>12</v>
       </c>
       <c r="L244" s="7">
@@ -30043,7 +30769,10 @@
       <c r="N244" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="O244" s="8"/>
+      <c r="O244">
+        <f t="shared" ca="1" si="11"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="245" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A245" s="4">
@@ -30062,7 +30791,7 @@
         <v>1.0767123287671232</v>
       </c>
       <c r="F245" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="G245" s="8" t="s">
@@ -30079,7 +30808,7 @@
         <v>0</v>
       </c>
       <c r="K245" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>12</v>
       </c>
       <c r="L245" s="7">
@@ -30091,7 +30820,10 @@
       <c r="N245" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="O245" s="8"/>
+      <c r="O245">
+        <f t="shared" ca="1" si="11"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="246" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A246" s="4">
@@ -30126,7 +30858,7 @@
         <v>0</v>
       </c>
       <c r="K246" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>12</v>
       </c>
       <c r="L246" s="7">
@@ -30138,7 +30870,10 @@
       <c r="N246" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="O246" s="8"/>
+      <c r="O246">
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="247" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A247" s="4">
@@ -30157,7 +30892,7 @@
         <v>0.94246575342465755</v>
       </c>
       <c r="F247" s="24">
-        <f t="shared" ref="F247:F284" si="8">ROUNDUP(E247,0)</f>
+        <f t="shared" ref="F247:F284" si="12">ROUNDUP(E247,0)</f>
         <v>1</v>
       </c>
       <c r="G247" s="8" t="s">
@@ -30174,7 +30909,7 @@
         <v>0</v>
       </c>
       <c r="K247" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>12</v>
       </c>
       <c r="L247" s="7">
@@ -30186,7 +30921,10 @@
       <c r="N247" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="O247" s="8"/>
+      <c r="O247">
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="248" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A248" s="4">
@@ -30205,7 +30943,7 @@
         <v>0.94246575342465755</v>
       </c>
       <c r="F248" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="G248" s="8" t="s">
@@ -30222,7 +30960,7 @@
         <v>0</v>
       </c>
       <c r="K248" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>12</v>
       </c>
       <c r="L248" s="7">
@@ -30234,7 +30972,10 @@
       <c r="N248" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="O248" s="8"/>
+      <c r="O248">
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="249" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A249" s="4">
@@ -30253,7 +30994,7 @@
         <v>0.8849315068493151</v>
       </c>
       <c r="F249" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="G249" s="8" t="s">
@@ -30270,7 +31011,7 @@
         <v>0</v>
       </c>
       <c r="K249" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>12</v>
       </c>
       <c r="L249" s="7">
@@ -30282,7 +31023,10 @@
       <c r="N249" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="O249" s="8"/>
+      <c r="O249">
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="250" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A250" s="4">
@@ -30301,7 +31045,7 @@
         <v>0.8849315068493151</v>
       </c>
       <c r="F250" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="G250" s="8" t="s">
@@ -30318,7 +31062,7 @@
         <v>0</v>
       </c>
       <c r="K250" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>12</v>
       </c>
       <c r="L250" s="7">
@@ -30330,7 +31074,10 @@
       <c r="N250" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="O250" s="8"/>
+      <c r="O250">
+        <f t="shared" ca="1" si="11"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="251" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A251" s="4">
@@ -30349,7 +31096,7 @@
         <v>0.86575342465753424</v>
       </c>
       <c r="F251" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="G251" s="8" t="s">
@@ -30366,7 +31113,7 @@
         <v>0</v>
       </c>
       <c r="K251" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>12</v>
       </c>
       <c r="L251" s="7">
@@ -30378,7 +31125,10 @@
       <c r="N251" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="O251" s="8"/>
+      <c r="O251">
+        <f t="shared" ca="1" si="11"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="252" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A252" s="4">
@@ -30397,7 +31147,7 @@
         <v>0.84657534246575339</v>
       </c>
       <c r="F252" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="G252" s="8" t="s">
@@ -30414,7 +31164,7 @@
         <v>0</v>
       </c>
       <c r="K252" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>12</v>
       </c>
       <c r="L252" s="7">
@@ -30426,7 +31176,10 @@
       <c r="N252" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="O252" s="8"/>
+      <c r="O252">
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="253" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A253" s="4">
@@ -30445,7 +31198,7 @@
         <v>0.75068493150684934</v>
       </c>
       <c r="F253" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="G253" s="8" t="s">
@@ -30462,7 +31215,7 @@
         <v>0</v>
       </c>
       <c r="K253" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>12</v>
       </c>
       <c r="L253" s="7">
@@ -30474,7 +31227,10 @@
       <c r="N253" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="O253" s="8"/>
+      <c r="O253">
+        <f t="shared" ca="1" si="11"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="254" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A254" s="4">
@@ -30493,7 +31249,7 @@
         <v>0.75068493150684934</v>
       </c>
       <c r="F254" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="G254" s="8" t="s">
@@ -30510,7 +31266,7 @@
         <v>0</v>
       </c>
       <c r="K254" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>12</v>
       </c>
       <c r="L254" s="7">
@@ -30522,7 +31278,10 @@
       <c r="N254" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="O254" s="8"/>
+      <c r="O254">
+        <f t="shared" ca="1" si="11"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="255" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A255" s="4">
@@ -30541,7 +31300,7 @@
         <v>0.67397260273972603</v>
       </c>
       <c r="F255" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="G255" s="8" t="s">
@@ -30558,7 +31317,7 @@
         <v>0</v>
       </c>
       <c r="K255" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>12</v>
       </c>
       <c r="L255" s="7">
@@ -30570,7 +31329,10 @@
       <c r="N255" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="O255" s="8"/>
+      <c r="O255">
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="256" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A256" s="4">
@@ -30589,7 +31351,7 @@
         <v>0.67397260273972603</v>
       </c>
       <c r="F256" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="G256" s="8" t="s">
@@ -30606,7 +31368,7 @@
         <v>0</v>
       </c>
       <c r="K256" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>12</v>
       </c>
       <c r="L256" s="7">
@@ -30618,7 +31380,10 @@
       <c r="N256" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="O256" s="8"/>
+      <c r="O256">
+        <f t="shared" ca="1" si="11"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="257" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A257" s="4">
@@ -30637,7 +31402,7 @@
         <v>0.67397260273972603</v>
       </c>
       <c r="F257" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="G257" s="8" t="s">
@@ -30654,7 +31419,7 @@
         <v>0</v>
       </c>
       <c r="K257" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>12</v>
       </c>
       <c r="L257" s="7">
@@ -30666,7 +31431,10 @@
       <c r="N257" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="O257" s="8"/>
+      <c r="O257">
+        <f t="shared" ca="1" si="11"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="258" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A258" s="4">
@@ -30685,7 +31453,7 @@
         <v>0.65479452054794518</v>
       </c>
       <c r="F258" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="G258" s="8" t="s">
@@ -30702,7 +31470,7 @@
         <v>0</v>
       </c>
       <c r="K258" s="25">
-        <f t="shared" ref="K258:K303" si="9">SUM(I258:J258)</f>
+        <f t="shared" ref="K258:K303" si="13">SUM(I258:J258)</f>
         <v>12</v>
       </c>
       <c r="L258" s="7">
@@ -30714,7 +31482,10 @@
       <c r="N258" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="O258" s="8"/>
+      <c r="O258">
+        <f t="shared" ca="1" si="11"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="259" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A259" s="4">
@@ -30733,7 +31504,7 @@
         <v>0.65479452054794518</v>
       </c>
       <c r="F259" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="G259" s="8" t="s">
@@ -30750,7 +31521,7 @@
         <v>0</v>
       </c>
       <c r="K259" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>12</v>
       </c>
       <c r="L259" s="7">
@@ -30762,7 +31533,10 @@
       <c r="N259" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="O259" s="8"/>
+      <c r="O259">
+        <f t="shared" ref="O259:Q304" ca="1" si="14">RANDBETWEEN(1,3)</f>
+        <v>3</v>
+      </c>
     </row>
     <row r="260" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A260" s="4">
@@ -30781,7 +31555,7 @@
         <v>0.63561643835616444</v>
       </c>
       <c r="F260" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="G260" s="8" t="s">
@@ -30798,7 +31572,7 @@
         <v>0</v>
       </c>
       <c r="K260" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>12</v>
       </c>
       <c r="L260" s="7">
@@ -30810,7 +31584,10 @@
       <c r="N260" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="O260" s="8"/>
+      <c r="O260">
+        <f t="shared" ca="1" si="14"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="261" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A261" s="4">
@@ -30829,7 +31606,7 @@
         <v>0.61643835616438358</v>
       </c>
       <c r="F261" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="G261" s="8" t="s">
@@ -30846,7 +31623,7 @@
         <v>0</v>
       </c>
       <c r="K261" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>12</v>
       </c>
       <c r="L261" s="7">
@@ -30858,7 +31635,10 @@
       <c r="N261" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="O261" s="8"/>
+      <c r="O261">
+        <f t="shared" ca="1" si="14"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="262" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A262" s="4">
@@ -30877,7 +31657,7 @@
         <v>0.61643835616438358</v>
       </c>
       <c r="F262" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="G262" s="8" t="s">
@@ -30894,7 +31674,7 @@
         <v>0</v>
       </c>
       <c r="K262" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>12</v>
       </c>
       <c r="L262" s="7">
@@ -30906,7 +31686,10 @@
       <c r="N262" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="O262" s="8"/>
+      <c r="O262">
+        <f t="shared" ca="1" si="14"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="263" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A263" s="4">
@@ -30925,7 +31708,7 @@
         <v>0.59452054794520548</v>
       </c>
       <c r="F263" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="G263" s="8" t="s">
@@ -30942,7 +31725,7 @@
         <v>0</v>
       </c>
       <c r="K263" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>12</v>
       </c>
       <c r="L263" s="7">
@@ -30954,7 +31737,10 @@
       <c r="N263" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="O263" s="8"/>
+      <c r="O263">
+        <f t="shared" ca="1" si="14"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="264" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A264" s="4">
@@ -30973,7 +31759,7 @@
         <v>0.48219178082191783</v>
       </c>
       <c r="F264" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="G264" s="8" t="s">
@@ -30990,7 +31776,7 @@
         <v>0</v>
       </c>
       <c r="K264" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>12</v>
       </c>
       <c r="L264" s="7">
@@ -31002,7 +31788,10 @@
       <c r="N264" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="O264" s="8"/>
+      <c r="O264">
+        <f t="shared" ca="1" si="14"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="265" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A265" s="4">
@@ -31021,7 +31810,7 @@
         <v>0.42465753424657532</v>
       </c>
       <c r="F265" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="G265" s="8" t="s">
@@ -31038,7 +31827,7 @@
         <v>0</v>
       </c>
       <c r="K265" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>12</v>
       </c>
       <c r="L265" s="7">
@@ -31050,7 +31839,10 @@
       <c r="N265" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="O265" s="8"/>
+      <c r="O265">
+        <f t="shared" ca="1" si="14"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="266" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A266" s="4">
@@ -31069,7 +31861,7 @@
         <v>0.40547945205479452</v>
       </c>
       <c r="F266" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="G266" s="8" t="s">
@@ -31086,7 +31878,7 @@
         <v>0</v>
       </c>
       <c r="K266" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>12</v>
       </c>
       <c r="L266" s="7">
@@ -31098,7 +31890,10 @@
       <c r="N266" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="O266" s="8"/>
+      <c r="O266">
+        <f t="shared" ca="1" si="14"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="267" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A267" s="4">
@@ -31117,7 +31912,7 @@
         <v>0.38630136986301372</v>
       </c>
       <c r="F267" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="G267" s="8" t="s">
@@ -31134,7 +31929,7 @@
         <v>0</v>
       </c>
       <c r="K267" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>12</v>
       </c>
       <c r="L267" s="7">
@@ -31146,7 +31941,10 @@
       <c r="N267" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="O267" s="8"/>
+      <c r="O267">
+        <f t="shared" ca="1" si="14"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="268" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A268" s="4">
@@ -31165,7 +31963,7 @@
         <v>0.36712328767123287</v>
       </c>
       <c r="F268" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="G268" s="8" t="s">
@@ -31182,7 +31980,7 @@
         <v>0</v>
       </c>
       <c r="K268" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>12</v>
       </c>
       <c r="L268" s="7">
@@ -31194,7 +31992,10 @@
       <c r="N268" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="O268" s="8"/>
+      <c r="O268">
+        <f t="shared" ca="1" si="14"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="269" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A269" s="4">
@@ -31213,7 +32014,7 @@
         <v>0.32602739726027397</v>
       </c>
       <c r="F269" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="G269" s="8" t="s">
@@ -31230,7 +32031,7 @@
         <v>0</v>
       </c>
       <c r="K269" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>12</v>
       </c>
       <c r="L269" s="7">
@@ -31242,7 +32043,10 @@
       <c r="N269" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="O269" s="8"/>
+      <c r="O269">
+        <f t="shared" ca="1" si="14"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="270" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A270" s="4">
@@ -31261,7 +32065,7 @@
         <v>0.27123287671232876</v>
       </c>
       <c r="F270" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="G270" s="8" t="s">
@@ -31278,7 +32082,7 @@
         <v>0</v>
       </c>
       <c r="K270" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>12</v>
       </c>
       <c r="L270" s="7">
@@ -31290,7 +32094,10 @@
       <c r="N270" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="O270" s="8"/>
+      <c r="O270">
+        <f t="shared" ca="1" si="14"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="271" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A271" s="4">
@@ -31309,7 +32116,7 @@
         <v>0.27123287671232876</v>
       </c>
       <c r="F271" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="G271" s="8" t="s">
@@ -31326,7 +32133,7 @@
         <v>0</v>
       </c>
       <c r="K271" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>12</v>
       </c>
       <c r="L271" s="7">
@@ -31338,7 +32145,10 @@
       <c r="N271" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="O271" s="8"/>
+      <c r="O271">
+        <f t="shared" ca="1" si="14"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="272" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A272" s="4">
@@ -31357,7 +32167,7 @@
         <v>0.27123287671232876</v>
       </c>
       <c r="F272" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="G272" s="8" t="s">
@@ -31374,7 +32184,7 @@
         <v>0</v>
       </c>
       <c r="K272" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>12</v>
       </c>
       <c r="L272" s="7">
@@ -31386,7 +32196,10 @@
       <c r="N272" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="O272" s="8"/>
+      <c r="O272">
+        <f t="shared" ca="1" si="14"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="273" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A273" s="4">
@@ -31405,7 +32218,7 @@
         <v>0.25205479452054796</v>
       </c>
       <c r="F273" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="G273" s="8" t="s">
@@ -31422,7 +32235,7 @@
         <v>0</v>
       </c>
       <c r="K273" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>12</v>
       </c>
       <c r="L273" s="7">
@@ -31434,7 +32247,10 @@
       <c r="N273" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="O273" s="8"/>
+      <c r="O273">
+        <f t="shared" ca="1" si="14"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="274" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A274" s="4">
@@ -31453,7 +32269,7 @@
         <v>0.25205479452054796</v>
       </c>
       <c r="F274" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="G274" s="8" t="s">
@@ -31470,7 +32286,7 @@
         <v>0</v>
       </c>
       <c r="K274" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>12</v>
       </c>
       <c r="L274" s="7">
@@ -31482,7 +32298,10 @@
       <c r="N274" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="O274" s="8"/>
+      <c r="O274">
+        <f t="shared" ca="1" si="14"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="275" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A275" s="4">
@@ -31501,7 +32320,7 @@
         <v>0.23013698630136986</v>
       </c>
       <c r="F275" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="G275" s="29" t="s">
@@ -31518,7 +32337,7 @@
         <v>0</v>
       </c>
       <c r="K275" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>12</v>
       </c>
       <c r="L275" s="43">
@@ -31530,7 +32349,10 @@
       <c r="N275" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="O275" s="8"/>
+      <c r="O275">
+        <f t="shared" ca="1" si="14"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="276" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A276" s="4">
@@ -31549,7 +32371,7 @@
         <v>0.23013698630136986</v>
       </c>
       <c r="F276" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="G276" s="29" t="s">
@@ -31566,7 +32388,7 @@
         <v>0</v>
       </c>
       <c r="K276" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>12</v>
       </c>
       <c r="L276" s="43">
@@ -31578,7 +32400,10 @@
       <c r="N276" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="O276" s="8"/>
+      <c r="O276">
+        <f t="shared" ca="1" si="14"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="277" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A277" s="4">
@@ -31597,7 +32422,7 @@
         <v>0.23013698630136986</v>
       </c>
       <c r="F277" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="G277" s="29" t="s">
@@ -31614,7 +32439,7 @@
         <v>0</v>
       </c>
       <c r="K277" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>12</v>
       </c>
       <c r="L277" s="43">
@@ -31626,7 +32451,10 @@
       <c r="N277" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="O277" s="8"/>
+      <c r="O277">
+        <f t="shared" ca="1" si="14"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="278" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A278" s="4">
@@ -31645,7 +32473,7 @@
         <v>0.21369863013698631</v>
       </c>
       <c r="F278" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="G278" s="29" t="s">
@@ -31662,7 +32490,7 @@
         <v>0</v>
       </c>
       <c r="K278" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>12</v>
       </c>
       <c r="L278" s="43">
@@ -31674,7 +32502,10 @@
       <c r="N278" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="O278" s="8"/>
+      <c r="O278">
+        <f t="shared" ca="1" si="14"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="279" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A279" s="4">
@@ -31693,7 +32524,7 @@
         <v>0.17534246575342466</v>
       </c>
       <c r="F279" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="G279" s="29" t="s">
@@ -31710,7 +32541,7 @@
         <v>0</v>
       </c>
       <c r="K279" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>12</v>
       </c>
       <c r="L279" s="43">
@@ -31722,7 +32553,10 @@
       <c r="N279" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="O279" s="8"/>
+      <c r="O279">
+        <f t="shared" ca="1" si="14"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="280" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A280" s="4">
@@ -31741,7 +32575,7 @@
         <v>0.17534246575342466</v>
       </c>
       <c r="F280" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="G280" s="29" t="s">
@@ -31758,7 +32592,7 @@
         <v>0</v>
       </c>
       <c r="K280" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>12</v>
       </c>
       <c r="L280" s="43">
@@ -31770,7 +32604,10 @@
       <c r="N280" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="O280" s="8"/>
+      <c r="O280">
+        <f t="shared" ca="1" si="14"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="281" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A281" s="4">
@@ -31789,7 +32626,7 @@
         <v>0.15616438356164383</v>
       </c>
       <c r="F281" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="G281" s="29" t="s">
@@ -31806,7 +32643,7 @@
         <v>0</v>
       </c>
       <c r="K281" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>12</v>
       </c>
       <c r="L281" s="43">
@@ -31818,7 +32655,10 @@
       <c r="N281" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="O281" s="8"/>
+      <c r="O281">
+        <f t="shared" ca="1" si="14"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="282" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A282" s="4">
@@ -31837,7 +32677,7 @@
         <v>0.11780821917808219</v>
       </c>
       <c r="F282" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="G282" s="29" t="s">
@@ -31854,7 +32694,7 @@
         <v>0</v>
       </c>
       <c r="K282" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>12</v>
       </c>
       <c r="L282" s="43">
@@ -31866,7 +32706,10 @@
       <c r="N282" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="O282" s="8"/>
+      <c r="O282">
+        <f t="shared" ca="1" si="14"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="283" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A283" s="4">
@@ -31885,7 +32728,7 @@
         <v>0.11780821917808219</v>
       </c>
       <c r="F283" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="G283" s="29" t="s">
@@ -31902,7 +32745,7 @@
         <v>0</v>
       </c>
       <c r="K283" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>12</v>
       </c>
       <c r="L283" s="43">
@@ -31914,7 +32757,10 @@
       <c r="N283" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="O283" s="8"/>
+      <c r="O283">
+        <f t="shared" ca="1" si="14"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="284" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A284" s="4">
@@ -31933,7 +32779,7 @@
         <v>0.11780821917808219</v>
       </c>
       <c r="F284" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="G284" s="29" t="s">
@@ -31950,7 +32796,7 @@
         <v>0</v>
       </c>
       <c r="K284" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>12</v>
       </c>
       <c r="L284" s="43">
@@ -31962,7 +32808,10 @@
       <c r="N284" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="O284" s="8"/>
+      <c r="O284">
+        <f t="shared" ca="1" si="14"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="285" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A285" s="4">
@@ -31997,7 +32846,7 @@
         <v>0</v>
       </c>
       <c r="K285" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>12</v>
       </c>
       <c r="L285" s="43">
@@ -32009,7 +32858,10 @@
       <c r="N285" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="O285" s="8"/>
+      <c r="O285">
+        <f t="shared" ca="1" si="14"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="286" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A286" s="4">
@@ -32044,7 +32896,7 @@
         <v>0</v>
       </c>
       <c r="K286" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>12</v>
       </c>
       <c r="L286" s="43">
@@ -32056,7 +32908,10 @@
       <c r="N286" s="29" t="s">
         <v>276</v>
       </c>
-      <c r="O286" s="8"/>
+      <c r="O286">
+        <f t="shared" ca="1" si="14"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="287" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A287" s="4">
@@ -32091,7 +32946,7 @@
         <v>0</v>
       </c>
       <c r="K287" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>12</v>
       </c>
       <c r="L287" s="43">
@@ -32103,7 +32958,10 @@
       <c r="N287" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="O287" s="8"/>
+      <c r="O287">
+        <f t="shared" ca="1" si="14"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="288" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A288" s="4">
@@ -32138,7 +32996,7 @@
         <v>0</v>
       </c>
       <c r="K288" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>12</v>
       </c>
       <c r="L288" s="43">
@@ -32150,7 +33008,10 @@
       <c r="N288" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="O288" s="8"/>
+      <c r="O288">
+        <f t="shared" ca="1" si="14"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="289" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A289" s="4">
@@ -32185,7 +33046,7 @@
         <v>0</v>
       </c>
       <c r="K289" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L289" s="43">
@@ -32197,7 +33058,10 @@
       <c r="N289" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="O289" s="8"/>
+      <c r="O289">
+        <f t="shared" ca="1" si="14"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="290" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A290" s="4">
@@ -32232,7 +33096,7 @@
         <v>0</v>
       </c>
       <c r="K290" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L290" s="43">
@@ -32244,7 +33108,10 @@
       <c r="N290" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="O290" s="8"/>
+      <c r="O290">
+        <f t="shared" ca="1" si="14"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="291" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A291" s="4">
@@ -32279,7 +33146,7 @@
         <v>0</v>
       </c>
       <c r="K291" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>12</v>
       </c>
       <c r="L291" s="43">
@@ -32291,7 +33158,10 @@
       <c r="N291" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="O291" s="8"/>
+      <c r="O291">
+        <f t="shared" ca="1" si="14"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="292" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A292" s="4">
@@ -32326,7 +33196,7 @@
         <v>0</v>
       </c>
       <c r="K292" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>12</v>
       </c>
       <c r="L292" s="43">
@@ -32338,7 +33208,10 @@
       <c r="N292" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="O292" s="8"/>
+      <c r="O292">
+        <f t="shared" ca="1" si="14"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="293" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A293" s="4">
@@ -32373,7 +33246,7 @@
         <v>0</v>
       </c>
       <c r="K293" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L293" s="43">
@@ -32385,7 +33258,10 @@
       <c r="N293" s="29" t="s">
         <v>276</v>
       </c>
-      <c r="O293" s="8"/>
+      <c r="O293">
+        <f t="shared" ca="1" si="14"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="294" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A294" s="4">
@@ -32420,7 +33296,7 @@
         <v>0</v>
       </c>
       <c r="K294" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>12</v>
       </c>
       <c r="L294" s="43">
@@ -32432,7 +33308,10 @@
       <c r="N294" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="O294" s="8"/>
+      <c r="O294">
+        <f t="shared" ca="1" si="14"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="295" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A295" s="4">
@@ -32467,7 +33346,7 @@
         <v>0</v>
       </c>
       <c r="K295" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>12</v>
       </c>
       <c r="L295" s="43">
@@ -32479,7 +33358,10 @@
       <c r="N295" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="O295" s="8"/>
+      <c r="O295">
+        <f t="shared" ca="1" si="14"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="296" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A296" s="4">
@@ -32514,7 +33396,7 @@
         <v>0</v>
       </c>
       <c r="K296" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>12</v>
       </c>
       <c r="L296" s="43">
@@ -32526,7 +33408,10 @@
       <c r="N296" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="O296" s="8"/>
+      <c r="O296">
+        <f t="shared" ca="1" si="14"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="297" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A297" s="4">
@@ -32561,7 +33446,7 @@
         <v>0</v>
       </c>
       <c r="K297" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>12</v>
       </c>
       <c r="L297" s="43">
@@ -32573,7 +33458,10 @@
       <c r="N297" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="O297" s="8"/>
+      <c r="O297">
+        <f t="shared" ca="1" si="14"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="298" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A298" s="4">
@@ -32608,7 +33496,7 @@
         <v>0</v>
       </c>
       <c r="K298" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>12</v>
       </c>
       <c r="L298" s="43">
@@ -32620,7 +33508,10 @@
       <c r="N298" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="O298" s="8"/>
+      <c r="O298">
+        <f t="shared" ca="1" si="14"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="299" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A299" s="4">
@@ -32655,7 +33546,7 @@
         <v>0</v>
       </c>
       <c r="K299" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>12</v>
       </c>
       <c r="L299" s="43">
@@ -32667,7 +33558,10 @@
       <c r="N299" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="O299" s="8"/>
+      <c r="O299">
+        <f t="shared" ca="1" si="14"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="300" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A300" s="4">
@@ -32702,7 +33596,7 @@
         <v>0</v>
       </c>
       <c r="K300" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L300" s="43">
@@ -32714,7 +33608,10 @@
       <c r="N300" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="O300" s="8"/>
+      <c r="O300">
+        <f t="shared" ca="1" si="14"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="301" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A301" s="4">
@@ -32749,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="K301" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>12</v>
       </c>
       <c r="L301" s="43">
@@ -32761,7 +33658,10 @@
       <c r="N301" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="O301" s="8"/>
+      <c r="O301">
+        <f t="shared" ca="1" si="14"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="302" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A302" s="4">
@@ -32797,7 +33697,7 @@
         <v>0</v>
       </c>
       <c r="K302" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>12</v>
       </c>
       <c r="L302" s="43">
@@ -32809,7 +33709,10 @@
       <c r="N302" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="O302" s="8"/>
+      <c r="O302">
+        <f t="shared" ca="1" si="14"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="303" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A303" s="4">
@@ -32844,7 +33747,7 @@
         <v>0</v>
       </c>
       <c r="K303" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L303" s="43">
@@ -32856,9 +33759,78 @@
       <c r="N303" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="O303" s="8"/>
-    </row>
-    <row r="304" spans="1:15" s="55" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+      <c r="O303">
+        <f t="shared" ca="1" si="14"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="304" spans="1:15" s="55" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A304" s="4">
+        <v>302</v>
+      </c>
+      <c r="B304" s="43">
+        <v>2019</v>
+      </c>
+      <c r="C304" s="46">
+        <v>43665</v>
+      </c>
+      <c r="D304" s="22">
+        <v>43466</v>
+      </c>
+      <c r="E304" s="23">
+        <v>-0.54520547945205478</v>
+      </c>
+      <c r="F304" s="24">
+        <v>0</v>
+      </c>
+      <c r="G304" s="29" t="s">
+        <v>512</v>
+      </c>
+      <c r="H304" s="8" t="s">
+        <v>762</v>
+      </c>
+      <c r="I304" s="24">
+        <v>0</v>
+      </c>
+      <c r="J304" s="25">
+        <f>IFERROR(VLOOKUP(H304,#REF!,2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K304" s="25">
+        <f t="shared" ref="K304:K305" si="15">SUM(I304:J304)</f>
+        <v>0</v>
+      </c>
+      <c r="L304" s="43">
+        <v>2065</v>
+      </c>
+      <c r="M304" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="N304" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="O304">
+        <f t="shared" ca="1" si="14"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="305" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A305" s="55"/>
+      <c r="B305" s="55"/>
+      <c r="C305" s="55"/>
+      <c r="D305" s="55"/>
+      <c r="E305" s="55"/>
+      <c r="F305" s="55"/>
+      <c r="G305" s="55"/>
+      <c r="H305" s="55"/>
+      <c r="I305" s="55"/>
+      <c r="J305" s="55"/>
+      <c r="K305" s="55"/>
+      <c r="L305" s="55"/>
+      <c r="M305" s="55"/>
+      <c r="N305" s="55"/>
+      <c r="O305" s="55"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
